--- a/docs/ST3/ST3_06.08.24_output.xlsx
+++ b/docs/ST3/ST3_06.08.24_output.xlsx
@@ -426,7 +426,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:L100"/>
+  <dimension ref="A1:N100"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -437,55 +437,65 @@
     <row r="1">
       <c r="B1" s="1" t="inlineStr">
         <is>
+          <t>Unnamed: 0.1</t>
+        </is>
+      </c>
+      <c r="C1" s="1" t="inlineStr">
+        <is>
+          <t>Unnamed: 0</t>
+        </is>
+      </c>
+      <c r="D1" s="1" t="inlineStr">
+        <is>
           <t>name</t>
         </is>
       </c>
-      <c r="C1" s="1" t="inlineStr">
+      <c r="E1" s="1" t="inlineStr">
         <is>
           <t>open</t>
         </is>
       </c>
-      <c r="D1" s="1" t="inlineStr">
+      <c r="F1" s="1" t="inlineStr">
         <is>
           <t>close</t>
         </is>
       </c>
-      <c r="E1" s="1" t="inlineStr">
+      <c r="G1" s="1" t="inlineStr">
         <is>
           <t>open_image</t>
         </is>
       </c>
-      <c r="F1" s="1" t="inlineStr">
+      <c r="H1" s="1" t="inlineStr">
         <is>
           <t>close_img</t>
         </is>
       </c>
-      <c r="G1" s="1" t="inlineStr">
+      <c r="I1" s="1" t="inlineStr">
         <is>
           <t>pos</t>
         </is>
       </c>
-      <c r="H1" s="1" t="inlineStr">
+      <c r="J1" s="1" t="inlineStr">
         <is>
           <t>traider</t>
         </is>
       </c>
-      <c r="I1" s="1" t="inlineStr">
+      <c r="K1" s="1" t="inlineStr">
         <is>
           <t>open_price</t>
         </is>
       </c>
-      <c r="J1" s="1" t="inlineStr">
+      <c r="L1" s="1" t="inlineStr">
         <is>
           <t>close_price</t>
         </is>
       </c>
-      <c r="K1" s="1" t="inlineStr">
+      <c r="M1" s="1" t="inlineStr">
         <is>
           <t>quity</t>
         </is>
       </c>
-      <c r="L1" s="1" t="inlineStr">
+      <c r="N1" s="1" t="inlineStr">
         <is>
           <t>percent</t>
         </is>
@@ -495,95 +505,107 @@
       <c r="A2" s="1" t="n">
         <v>0</v>
       </c>
-      <c r="B2" t="inlineStr">
+      <c r="B2" t="n">
+        <v>0</v>
+      </c>
+      <c r="C2" t="n">
+        <v>0</v>
+      </c>
+      <c r="D2" t="inlineStr">
         <is>
           <t>moex</t>
         </is>
       </c>
-      <c r="C2" t="inlineStr">
+      <c r="E2" t="inlineStr">
         <is>
           <t>2024-06-14 16:05:29.360793</t>
         </is>
       </c>
-      <c r="D2" t="inlineStr">
+      <c r="F2" t="inlineStr">
         <is>
           <t>2024-06-14 16:08:51.910451</t>
         </is>
       </c>
-      <c r="E2" t="inlineStr">
+      <c r="G2" t="inlineStr">
         <is>
           <t>./test_images/none.png</t>
         </is>
       </c>
-      <c r="F2" t="inlineStr">
+      <c r="H2" t="inlineStr">
         <is>
           <t>./test_images/none.png</t>
         </is>
       </c>
-      <c r="G2" t="inlineStr">
+      <c r="I2" t="inlineStr">
         <is>
           <t>long</t>
         </is>
       </c>
-      <c r="H2" t="inlineStr">
+      <c r="J2" t="inlineStr">
         <is>
           <t>VisualTraider</t>
         </is>
       </c>
-      <c r="I2" t="inlineStr"/>
-      <c r="J2" t="inlineStr"/>
       <c r="K2" t="inlineStr"/>
       <c r="L2" t="inlineStr"/>
+      <c r="M2" t="inlineStr"/>
+      <c r="N2" t="inlineStr"/>
     </row>
     <row r="3">
       <c r="A3" s="1" t="n">
         <v>1</v>
       </c>
-      <c r="B3" t="inlineStr">
+      <c r="B3" t="n">
+        <v>1</v>
+      </c>
+      <c r="C3" t="n">
+        <v>1</v>
+      </c>
+      <c r="D3" t="inlineStr">
         <is>
           <t>SBER</t>
         </is>
       </c>
-      <c r="C3" t="inlineStr">
+      <c r="E3" t="inlineStr">
         <is>
           <t>1731673956.0300734</t>
         </is>
       </c>
-      <c r="D3" t="inlineStr">
+      <c r="F3" t="inlineStr">
         <is>
           <t>1731673957.1896732</t>
         </is>
       </c>
-      <c r="E3" t="inlineStr">
+      <c r="G3" t="inlineStr">
         <is>
           <t>./test_images/SBER1731673956.0300734.png</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="H3" t="inlineStr">
         <is>
           <t>./test_images/SBER1731673957.1896732.png</t>
         </is>
       </c>
-      <c r="G3" t="inlineStr">
+      <c r="I3" t="inlineStr">
         <is>
           <t>long</t>
         </is>
       </c>
-      <c r="H3" t="inlineStr">
-        <is>
-          <t>ST3</t>
-        </is>
-      </c>
-      <c r="I3" t="n">
+      <c r="J3" t="inlineStr">
+        <is>
+          <t>ST3</t>
+        </is>
+      </c>
+      <c r="K3" t="n">
         <v>279.96</v>
       </c>
-      <c r="J3" t="n">
+      <c r="L3" t="n">
         <v>280.46</v>
       </c>
-      <c r="K3" t="n">
+      <c r="M3" t="n">
         <v>0.5</v>
       </c>
-      <c r="L3" t="n">
+      <c r="N3" t="n">
         <v>0.18</v>
       </c>
     </row>
@@ -591,51 +613,57 @@
       <c r="A4" s="1" t="n">
         <v>2</v>
       </c>
-      <c r="B4" t="inlineStr">
+      <c r="B4" t="n">
+        <v>2</v>
+      </c>
+      <c r="C4" t="n">
+        <v>2</v>
+      </c>
+      <c r="D4" t="inlineStr">
         <is>
           <t>SBER</t>
         </is>
       </c>
-      <c r="C4" t="inlineStr">
+      <c r="E4" t="inlineStr">
         <is>
           <t>1731673957.7933445</t>
         </is>
       </c>
-      <c r="D4" t="inlineStr">
+      <c r="F4" t="inlineStr">
         <is>
           <t>1731673960.2078228</t>
         </is>
       </c>
-      <c r="E4" t="inlineStr">
+      <c r="G4" t="inlineStr">
         <is>
           <t>./test_images/SBER1731673957.7933445.png</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="H4" t="inlineStr">
         <is>
           <t>./test_images/SBER1731673960.2078228.png</t>
         </is>
       </c>
-      <c r="G4" t="inlineStr">
+      <c r="I4" t="inlineStr">
         <is>
           <t>long</t>
         </is>
       </c>
-      <c r="H4" t="inlineStr">
-        <is>
-          <t>ST3</t>
-        </is>
-      </c>
-      <c r="I4" t="n">
+      <c r="J4" t="inlineStr">
+        <is>
+          <t>ST3</t>
+        </is>
+      </c>
+      <c r="K4" t="n">
         <v>280.47</v>
       </c>
-      <c r="J4" t="n">
+      <c r="L4" t="n">
         <v>278.86</v>
       </c>
-      <c r="K4" t="n">
+      <c r="M4" t="n">
         <v>-1.610000000000014</v>
       </c>
-      <c r="L4" t="n">
+      <c r="N4" t="n">
         <v>-0.5700000000000001</v>
       </c>
     </row>
@@ -643,51 +671,57 @@
       <c r="A5" s="1" t="n">
         <v>3</v>
       </c>
-      <c r="B5" t="inlineStr">
+      <c r="B5" t="n">
+        <v>3</v>
+      </c>
+      <c r="C5" t="n">
+        <v>3</v>
+      </c>
+      <c r="D5" t="inlineStr">
         <is>
           <t>SBER</t>
         </is>
       </c>
-      <c r="C5" t="inlineStr">
+      <c r="E5" t="inlineStr">
         <is>
           <t>1731673968.8004026</t>
         </is>
       </c>
-      <c r="D5" t="inlineStr">
+      <c r="F5" t="inlineStr">
         <is>
           <t>1731673969.6199427</t>
         </is>
       </c>
-      <c r="E5" t="inlineStr">
+      <c r="G5" t="inlineStr">
         <is>
           <t>./test_images/SBER1731673968.8004026.png</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
+      <c r="H5" t="inlineStr">
         <is>
           <t>./test_images/SBER1731673969.6199427.png</t>
         </is>
       </c>
-      <c r="G5" t="inlineStr">
+      <c r="I5" t="inlineStr">
         <is>
           <t>short</t>
         </is>
       </c>
-      <c r="H5" t="inlineStr">
-        <is>
-          <t>ST3</t>
-        </is>
-      </c>
-      <c r="I5" t="n">
+      <c r="J5" t="inlineStr">
+        <is>
+          <t>ST3</t>
+        </is>
+      </c>
+      <c r="K5" t="n">
         <v>278.46</v>
       </c>
-      <c r="J5" t="n">
+      <c r="L5" t="n">
         <v>277.76</v>
       </c>
-      <c r="K5" t="n">
+      <c r="M5" t="n">
         <v>0.6999999999999886</v>
       </c>
-      <c r="L5" t="n">
+      <c r="N5" t="n">
         <v>0.25</v>
       </c>
     </row>
@@ -695,51 +729,57 @@
       <c r="A6" s="1" t="n">
         <v>4</v>
       </c>
-      <c r="B6" t="inlineStr">
+      <c r="B6" t="n">
+        <v>4</v>
+      </c>
+      <c r="C6" t="n">
+        <v>4</v>
+      </c>
+      <c r="D6" t="inlineStr">
         <is>
           <t>SBER</t>
         </is>
       </c>
-      <c r="C6" t="inlineStr">
+      <c r="E6" t="inlineStr">
         <is>
           <t>1731673970.411429</t>
         </is>
       </c>
-      <c r="D6" t="inlineStr">
+      <c r="F6" t="inlineStr">
         <is>
           <t>1731673971.061174</t>
         </is>
       </c>
-      <c r="E6" t="inlineStr">
+      <c r="G6" t="inlineStr">
         <is>
           <t>./test_images/SBER1731673970.411429.png</t>
         </is>
       </c>
-      <c r="F6" t="inlineStr">
+      <c r="H6" t="inlineStr">
         <is>
           <t>./test_images/SBER1731673971.061174.png</t>
         </is>
       </c>
-      <c r="G6" t="inlineStr">
+      <c r="I6" t="inlineStr">
         <is>
           <t>short</t>
         </is>
       </c>
-      <c r="H6" t="inlineStr">
-        <is>
-          <t>ST3</t>
-        </is>
-      </c>
-      <c r="I6" t="n">
+      <c r="J6" t="inlineStr">
+        <is>
+          <t>ST3</t>
+        </is>
+      </c>
+      <c r="K6" t="n">
         <v>277.85</v>
       </c>
-      <c r="J6" t="n">
+      <c r="L6" t="n">
         <v>278.16</v>
       </c>
-      <c r="K6" t="n">
+      <c r="M6" t="n">
         <v>-0.3100000000000023</v>
       </c>
-      <c r="L6" t="n">
+      <c r="N6" t="n">
         <v>-0.11</v>
       </c>
     </row>
@@ -747,51 +787,57 @@
       <c r="A7" s="1" t="n">
         <v>5</v>
       </c>
-      <c r="B7" t="inlineStr">
+      <c r="B7" t="n">
+        <v>5</v>
+      </c>
+      <c r="C7" t="n">
+        <v>5</v>
+      </c>
+      <c r="D7" t="inlineStr">
         <is>
           <t>SBER</t>
         </is>
       </c>
-      <c r="C7" t="inlineStr">
+      <c r="E7" t="inlineStr">
         <is>
           <t>1731673971.9092424</t>
         </is>
       </c>
-      <c r="D7" t="inlineStr">
+      <c r="F7" t="inlineStr">
         <is>
           <t>1731673972.9226356</t>
         </is>
       </c>
-      <c r="E7" t="inlineStr">
+      <c r="G7" t="inlineStr">
         <is>
           <t>./test_images/SBER1731673971.9092424.png</t>
         </is>
       </c>
-      <c r="F7" t="inlineStr">
+      <c r="H7" t="inlineStr">
         <is>
           <t>./test_images/SBER1731673972.9226356.png</t>
         </is>
       </c>
-      <c r="G7" t="inlineStr">
+      <c r="I7" t="inlineStr">
         <is>
           <t>short</t>
         </is>
       </c>
-      <c r="H7" t="inlineStr">
-        <is>
-          <t>ST3</t>
-        </is>
-      </c>
-      <c r="I7" t="n">
+      <c r="J7" t="inlineStr">
+        <is>
+          <t>ST3</t>
+        </is>
+      </c>
+      <c r="K7" t="n">
         <v>277.7</v>
       </c>
-      <c r="J7" t="n">
+      <c r="L7" t="n">
         <v>277.25</v>
       </c>
-      <c r="K7" t="n">
+      <c r="M7" t="n">
         <v>0.4499999999999886</v>
       </c>
-      <c r="L7" t="n">
+      <c r="N7" t="n">
         <v>0.16</v>
       </c>
     </row>
@@ -799,51 +845,57 @@
       <c r="A8" s="1" t="n">
         <v>6</v>
       </c>
-      <c r="B8" t="inlineStr">
+      <c r="B8" t="n">
+        <v>6</v>
+      </c>
+      <c r="C8" t="n">
+        <v>6</v>
+      </c>
+      <c r="D8" t="inlineStr">
         <is>
           <t>SBER</t>
         </is>
       </c>
-      <c r="C8" t="inlineStr">
+      <c r="E8" t="inlineStr">
         <is>
           <t>1731673973.297934</t>
         </is>
       </c>
-      <c r="D8" t="inlineStr">
+      <c r="F8" t="inlineStr">
         <is>
           <t>1731673973.5421033</t>
         </is>
       </c>
-      <c r="E8" t="inlineStr">
+      <c r="G8" t="inlineStr">
         <is>
           <t>./test_images/SBER1731673973.297934.png</t>
         </is>
       </c>
-      <c r="F8" t="inlineStr">
+      <c r="H8" t="inlineStr">
         <is>
           <t>./test_images/SBER1731673973.5421033.png</t>
         </is>
       </c>
-      <c r="G8" t="inlineStr">
+      <c r="I8" t="inlineStr">
         <is>
           <t>short</t>
         </is>
       </c>
-      <c r="H8" t="inlineStr">
-        <is>
-          <t>ST3</t>
-        </is>
-      </c>
-      <c r="I8" t="n">
+      <c r="J8" t="inlineStr">
+        <is>
+          <t>ST3</t>
+        </is>
+      </c>
+      <c r="K8" t="n">
         <v>277.54</v>
       </c>
-      <c r="J8" t="n">
+      <c r="L8" t="n">
         <v>276.72</v>
       </c>
-      <c r="K8" t="n">
+      <c r="M8" t="n">
         <v>0.8199999999999932</v>
       </c>
-      <c r="L8" t="n">
+      <c r="N8" t="n">
         <v>0.3</v>
       </c>
     </row>
@@ -851,51 +903,57 @@
       <c r="A9" s="1" t="n">
         <v>7</v>
       </c>
-      <c r="B9" t="inlineStr">
+      <c r="B9" t="n">
+        <v>7</v>
+      </c>
+      <c r="C9" t="n">
+        <v>7</v>
+      </c>
+      <c r="D9" t="inlineStr">
         <is>
           <t>SBER</t>
         </is>
       </c>
-      <c r="C9" t="inlineStr">
+      <c r="E9" t="inlineStr">
         <is>
           <t>1731673974.700715</t>
         </is>
       </c>
-      <c r="D9" t="inlineStr">
+      <c r="F9" t="inlineStr">
         <is>
           <t>1731673975.8803613</t>
         </is>
       </c>
-      <c r="E9" t="inlineStr">
+      <c r="G9" t="inlineStr">
         <is>
           <t>./test_images/SBER1731673974.700715.png</t>
         </is>
       </c>
-      <c r="F9" t="inlineStr">
+      <c r="H9" t="inlineStr">
         <is>
           <t>./test_images/SBER1731673975.8803613.png</t>
         </is>
       </c>
-      <c r="G9" t="inlineStr">
+      <c r="I9" t="inlineStr">
         <is>
           <t>short</t>
         </is>
       </c>
-      <c r="H9" t="inlineStr">
-        <is>
-          <t>ST3</t>
-        </is>
-      </c>
-      <c r="I9" t="n">
+      <c r="J9" t="inlineStr">
+        <is>
+          <t>ST3</t>
+        </is>
+      </c>
+      <c r="K9" t="n">
         <v>277.22</v>
       </c>
-      <c r="J9" t="n">
+      <c r="L9" t="n">
         <v>278.04</v>
       </c>
-      <c r="K9" t="n">
+      <c r="M9" t="n">
         <v>-0.8199999999999932</v>
       </c>
-      <c r="L9" t="n">
+      <c r="N9" t="n">
         <v>-0.3</v>
       </c>
     </row>
@@ -903,51 +961,57 @@
       <c r="A10" s="1" t="n">
         <v>8</v>
       </c>
-      <c r="B10" t="inlineStr">
+      <c r="B10" t="n">
+        <v>8</v>
+      </c>
+      <c r="C10" t="n">
+        <v>8</v>
+      </c>
+      <c r="D10" t="inlineStr">
         <is>
           <t>SBER</t>
         </is>
       </c>
-      <c r="C10" t="inlineStr">
+      <c r="E10" t="inlineStr">
         <is>
           <t>1731673977.8611662</t>
         </is>
       </c>
-      <c r="D10" t="inlineStr">
+      <c r="F10" t="inlineStr">
         <is>
           <t>1731673979.8781576</t>
         </is>
       </c>
-      <c r="E10" t="inlineStr">
+      <c r="G10" t="inlineStr">
         <is>
           <t>./test_images/SBER1731673977.8611662.png</t>
         </is>
       </c>
-      <c r="F10" t="inlineStr">
+      <c r="H10" t="inlineStr">
         <is>
           <t>./test_images/SBER1731673979.8781576.png</t>
         </is>
       </c>
-      <c r="G10" t="inlineStr">
+      <c r="I10" t="inlineStr">
         <is>
           <t>long</t>
         </is>
       </c>
-      <c r="H10" t="inlineStr">
-        <is>
-          <t>ST3</t>
-        </is>
-      </c>
-      <c r="I10" t="n">
+      <c r="J10" t="inlineStr">
+        <is>
+          <t>ST3</t>
+        </is>
+      </c>
+      <c r="K10" t="n">
         <v>278.77</v>
       </c>
-      <c r="J10" t="n">
+      <c r="L10" t="n">
         <v>278.96</v>
       </c>
-      <c r="K10" t="n">
+      <c r="M10" t="n">
         <v>0.1899999999999977</v>
       </c>
-      <c r="L10" t="n">
+      <c r="N10" t="n">
         <v>0.06999999999999999</v>
       </c>
     </row>
@@ -955,51 +1019,57 @@
       <c r="A11" s="1" t="n">
         <v>9</v>
       </c>
-      <c r="B11" t="inlineStr">
+      <c r="B11" t="n">
+        <v>9</v>
+      </c>
+      <c r="C11" t="n">
+        <v>9</v>
+      </c>
+      <c r="D11" t="inlineStr">
         <is>
           <t>GAZP</t>
         </is>
       </c>
-      <c r="C11" t="inlineStr">
+      <c r="E11" t="inlineStr">
         <is>
           <t>1731673985.965212</t>
         </is>
       </c>
-      <c r="D11" t="inlineStr">
+      <c r="F11" t="inlineStr">
         <is>
           <t>1731673986.925502</t>
         </is>
       </c>
-      <c r="E11" t="inlineStr">
+      <c r="G11" t="inlineStr">
         <is>
           <t>./test_images/GAZP1731673985.965212.png</t>
         </is>
       </c>
-      <c r="F11" t="inlineStr">
+      <c r="H11" t="inlineStr">
         <is>
           <t>./test_images/GAZP1731673986.925502.png</t>
         </is>
       </c>
-      <c r="G11" t="inlineStr">
+      <c r="I11" t="inlineStr">
         <is>
           <t>long</t>
         </is>
       </c>
-      <c r="H11" t="inlineStr">
-        <is>
-          <t>ST3</t>
-        </is>
-      </c>
-      <c r="I11" t="n">
+      <c r="J11" t="inlineStr">
+        <is>
+          <t>ST3</t>
+        </is>
+      </c>
+      <c r="K11" t="n">
         <v>129.16</v>
       </c>
-      <c r="J11" t="n">
+      <c r="L11" t="n">
         <v>129.28</v>
       </c>
-      <c r="K11" t="n">
+      <c r="M11" t="n">
         <v>0.1200000000000045</v>
       </c>
-      <c r="L11" t="n">
+      <c r="N11" t="n">
         <v>0.09</v>
       </c>
     </row>
@@ -1007,51 +1077,57 @@
       <c r="A12" s="1" t="n">
         <v>10</v>
       </c>
-      <c r="B12" t="inlineStr">
+      <c r="B12" t="n">
+        <v>10</v>
+      </c>
+      <c r="C12" t="n">
+        <v>10</v>
+      </c>
+      <c r="D12" t="inlineStr">
         <is>
           <t>GAZP</t>
         </is>
       </c>
-      <c r="C12" t="inlineStr">
+      <c r="E12" t="inlineStr">
         <is>
           <t>1731673987.6733875</t>
         </is>
       </c>
-      <c r="D12" t="inlineStr">
+      <c r="F12" t="inlineStr">
         <is>
           <t>1731673990.6717155</t>
         </is>
       </c>
-      <c r="E12" t="inlineStr">
+      <c r="G12" t="inlineStr">
         <is>
           <t>./test_images/GAZP1731673987.6733875.png</t>
         </is>
       </c>
-      <c r="F12" t="inlineStr">
+      <c r="H12" t="inlineStr">
         <is>
           <t>./test_images/GAZP1731673990.6717155.png</t>
         </is>
       </c>
-      <c r="G12" t="inlineStr">
+      <c r="I12" t="inlineStr">
         <is>
           <t>long</t>
         </is>
       </c>
-      <c r="H12" t="inlineStr">
-        <is>
-          <t>ST3</t>
-        </is>
-      </c>
-      <c r="I12" t="n">
+      <c r="J12" t="inlineStr">
+        <is>
+          <t>ST3</t>
+        </is>
+      </c>
+      <c r="K12" t="n">
         <v>129.28</v>
       </c>
-      <c r="J12" t="n">
+      <c r="L12" t="n">
         <v>128.59</v>
       </c>
-      <c r="K12" t="n">
+      <c r="M12" t="n">
         <v>-0.6899999999999977</v>
       </c>
-      <c r="L12" t="n">
+      <c r="N12" t="n">
         <v>-0.53</v>
       </c>
     </row>
@@ -1059,51 +1135,57 @@
       <c r="A13" s="1" t="n">
         <v>11</v>
       </c>
-      <c r="B13" t="inlineStr">
+      <c r="B13" t="n">
+        <v>11</v>
+      </c>
+      <c r="C13" t="n">
+        <v>11</v>
+      </c>
+      <c r="D13" t="inlineStr">
         <is>
           <t>GAZP</t>
         </is>
       </c>
-      <c r="C13" t="inlineStr">
+      <c r="E13" t="inlineStr">
         <is>
           <t>1731673994.4396882</t>
         </is>
       </c>
-      <c r="D13" t="inlineStr">
+      <c r="F13" t="inlineStr">
         <is>
           <t>1731673994.9771118</t>
         </is>
       </c>
-      <c r="E13" t="inlineStr">
+      <c r="G13" t="inlineStr">
         <is>
           <t>./test_images/GAZP1731673994.4396882.png</t>
         </is>
       </c>
-      <c r="F13" t="inlineStr">
+      <c r="H13" t="inlineStr">
         <is>
           <t>./test_images/GAZP1731673994.9771118.png</t>
         </is>
       </c>
-      <c r="G13" t="inlineStr">
+      <c r="I13" t="inlineStr">
         <is>
           <t>long</t>
         </is>
       </c>
-      <c r="H13" t="inlineStr">
-        <is>
-          <t>ST3</t>
-        </is>
-      </c>
-      <c r="I13" t="n">
+      <c r="J13" t="inlineStr">
+        <is>
+          <t>ST3</t>
+        </is>
+      </c>
+      <c r="K13" t="n">
         <v>128.9</v>
       </c>
-      <c r="J13" t="n">
+      <c r="L13" t="n">
         <v>129.15</v>
       </c>
-      <c r="K13" t="n">
+      <c r="M13" t="n">
         <v>0.25</v>
       </c>
-      <c r="L13" t="n">
+      <c r="N13" t="n">
         <v>0.19</v>
       </c>
     </row>
@@ -1111,51 +1193,57 @@
       <c r="A14" s="1" t="n">
         <v>12</v>
       </c>
-      <c r="B14" t="inlineStr">
+      <c r="B14" t="n">
+        <v>12</v>
+      </c>
+      <c r="C14" t="n">
+        <v>12</v>
+      </c>
+      <c r="D14" t="inlineStr">
         <is>
           <t>GAZP</t>
         </is>
       </c>
-      <c r="C14" t="inlineStr">
+      <c r="E14" t="inlineStr">
         <is>
           <t>1731673995.9042313</t>
         </is>
       </c>
-      <c r="D14" t="inlineStr">
+      <c r="F14" t="inlineStr">
         <is>
           <t>1731673998.3382423</t>
         </is>
       </c>
-      <c r="E14" t="inlineStr">
+      <c r="G14" t="inlineStr">
         <is>
           <t>./test_images/GAZP1731673995.9042313.png</t>
         </is>
       </c>
-      <c r="F14" t="inlineStr">
+      <c r="H14" t="inlineStr">
         <is>
           <t>./test_images/GAZP1731673998.3382423.png</t>
         </is>
       </c>
-      <c r="G14" t="inlineStr">
+      <c r="I14" t="inlineStr">
         <is>
           <t>long</t>
         </is>
       </c>
-      <c r="H14" t="inlineStr">
-        <is>
-          <t>ST3</t>
-        </is>
-      </c>
-      <c r="I14" t="n">
+      <c r="J14" t="inlineStr">
+        <is>
+          <t>ST3</t>
+        </is>
+      </c>
+      <c r="K14" t="n">
         <v>129.19</v>
       </c>
-      <c r="J14" t="n">
+      <c r="L14" t="n">
         <v>128.83</v>
       </c>
-      <c r="K14" t="n">
+      <c r="M14" t="n">
         <v>-0.3599999999999852</v>
       </c>
-      <c r="L14" t="n">
+      <c r="N14" t="n">
         <v>-0.28</v>
       </c>
     </row>
@@ -1163,51 +1251,57 @@
       <c r="A15" s="1" t="n">
         <v>13</v>
       </c>
-      <c r="B15" t="inlineStr">
+      <c r="B15" t="n">
+        <v>13</v>
+      </c>
+      <c r="C15" t="n">
+        <v>13</v>
+      </c>
+      <c r="D15" t="inlineStr">
         <is>
           <t>GAZP</t>
         </is>
       </c>
-      <c r="C15" t="inlineStr">
+      <c r="E15" t="inlineStr">
         <is>
           <t>1731674000.1529624</t>
         </is>
       </c>
-      <c r="D15" t="inlineStr">
+      <c r="F15" t="inlineStr">
         <is>
           <t>1731674000.8963346</t>
         </is>
       </c>
-      <c r="E15" t="inlineStr">
+      <c r="G15" t="inlineStr">
         <is>
           <t>./test_images/GAZP1731674000.1529624.png</t>
         </is>
       </c>
-      <c r="F15" t="inlineStr">
+      <c r="H15" t="inlineStr">
         <is>
           <t>./test_images/GAZP1731674000.8963346.png</t>
         </is>
       </c>
-      <c r="G15" t="inlineStr">
+      <c r="I15" t="inlineStr">
         <is>
           <t>short</t>
         </is>
       </c>
-      <c r="H15" t="inlineStr">
-        <is>
-          <t>ST3</t>
-        </is>
-      </c>
-      <c r="I15" t="n">
+      <c r="J15" t="inlineStr">
+        <is>
+          <t>ST3</t>
+        </is>
+      </c>
+      <c r="K15" t="n">
         <v>128.76</v>
       </c>
-      <c r="J15" t="n">
+      <c r="L15" t="n">
         <v>128.23</v>
       </c>
-      <c r="K15" t="n">
+      <c r="M15" t="n">
         <v>0.5300000000000011</v>
       </c>
-      <c r="L15" t="n">
+      <c r="N15" t="n">
         <v>0.41</v>
       </c>
     </row>
@@ -1215,51 +1309,57 @@
       <c r="A16" s="1" t="n">
         <v>14</v>
       </c>
-      <c r="B16" t="inlineStr">
+      <c r="B16" t="n">
+        <v>14</v>
+      </c>
+      <c r="C16" t="n">
+        <v>14</v>
+      </c>
+      <c r="D16" t="inlineStr">
         <is>
           <t>GAZP</t>
         </is>
       </c>
-      <c r="C16" t="inlineStr">
+      <c r="E16" t="inlineStr">
         <is>
           <t>1731674001.7808838</t>
         </is>
       </c>
-      <c r="D16" t="inlineStr">
+      <c r="F16" t="inlineStr">
         <is>
           <t>1731674002.8675723</t>
         </is>
       </c>
-      <c r="E16" t="inlineStr">
+      <c r="G16" t="inlineStr">
         <is>
           <t>./test_images/GAZP1731674001.7808838.png</t>
         </is>
       </c>
-      <c r="F16" t="inlineStr">
+      <c r="H16" t="inlineStr">
         <is>
           <t>./test_images/GAZP1731674002.8675723.png</t>
         </is>
       </c>
-      <c r="G16" t="inlineStr">
+      <c r="I16" t="inlineStr">
         <is>
           <t>short</t>
         </is>
       </c>
-      <c r="H16" t="inlineStr">
-        <is>
-          <t>ST3</t>
-        </is>
-      </c>
-      <c r="I16" t="n">
+      <c r="J16" t="inlineStr">
+        <is>
+          <t>ST3</t>
+        </is>
+      </c>
+      <c r="K16" t="n">
         <v>128.35</v>
       </c>
-      <c r="J16" t="n">
+      <c r="L16" t="n">
         <v>128.18</v>
       </c>
-      <c r="K16" t="n">
+      <c r="M16" t="n">
         <v>0.1699999999999875</v>
       </c>
-      <c r="L16" t="n">
+      <c r="N16" t="n">
         <v>0.13</v>
       </c>
     </row>
@@ -1267,51 +1367,57 @@
       <c r="A17" s="1" t="n">
         <v>15</v>
       </c>
-      <c r="B17" t="inlineStr">
+      <c r="B17" t="n">
+        <v>15</v>
+      </c>
+      <c r="C17" t="n">
+        <v>15</v>
+      </c>
+      <c r="D17" t="inlineStr">
         <is>
           <t>GAZP</t>
         </is>
       </c>
-      <c r="C17" t="inlineStr">
+      <c r="E17" t="inlineStr">
         <is>
           <t>1731674004.033059</t>
         </is>
       </c>
-      <c r="D17" t="inlineStr">
+      <c r="F17" t="inlineStr">
         <is>
           <t>1731674004.3743358</t>
         </is>
       </c>
-      <c r="E17" t="inlineStr">
+      <c r="G17" t="inlineStr">
         <is>
           <t>./test_images/GAZP1731674004.033059.png</t>
         </is>
       </c>
-      <c r="F17" t="inlineStr">
+      <c r="H17" t="inlineStr">
         <is>
           <t>./test_images/GAZP1731674004.3743358.png</t>
         </is>
       </c>
-      <c r="G17" t="inlineStr">
+      <c r="I17" t="inlineStr">
         <is>
           <t>short</t>
         </is>
       </c>
-      <c r="H17" t="inlineStr">
-        <is>
-          <t>ST3</t>
-        </is>
-      </c>
-      <c r="I17" t="n">
+      <c r="J17" t="inlineStr">
+        <is>
+          <t>ST3</t>
+        </is>
+      </c>
+      <c r="K17" t="n">
         <v>128.09</v>
       </c>
-      <c r="J17" t="n">
+      <c r="L17" t="n">
         <v>127.77</v>
       </c>
-      <c r="K17" t="n">
+      <c r="M17" t="n">
         <v>0.3200000000000074</v>
       </c>
-      <c r="L17" t="n">
+      <c r="N17" t="n">
         <v>0.25</v>
       </c>
     </row>
@@ -1319,51 +1425,57 @@
       <c r="A18" s="1" t="n">
         <v>16</v>
       </c>
-      <c r="B18" t="inlineStr">
+      <c r="B18" t="n">
+        <v>16</v>
+      </c>
+      <c r="C18" t="n">
+        <v>16</v>
+      </c>
+      <c r="D18" t="inlineStr">
         <is>
           <t>GAZP</t>
         </is>
       </c>
-      <c r="C18" t="inlineStr">
+      <c r="E18" t="inlineStr">
         <is>
           <t>1731674005.410375</t>
         </is>
       </c>
-      <c r="D18" t="inlineStr">
+      <c r="F18" t="inlineStr">
         <is>
           <t>1731674006.9746323</t>
         </is>
       </c>
-      <c r="E18" t="inlineStr">
+      <c r="G18" t="inlineStr">
         <is>
           <t>./test_images/GAZP1731674005.410375.png</t>
         </is>
       </c>
-      <c r="F18" t="inlineStr">
+      <c r="H18" t="inlineStr">
         <is>
           <t>./test_images/GAZP1731674006.9746323.png</t>
         </is>
       </c>
-      <c r="G18" t="inlineStr">
+      <c r="I18" t="inlineStr">
         <is>
           <t>short</t>
         </is>
       </c>
-      <c r="H18" t="inlineStr">
-        <is>
-          <t>ST3</t>
-        </is>
-      </c>
-      <c r="I18" t="n">
+      <c r="J18" t="inlineStr">
+        <is>
+          <t>ST3</t>
+        </is>
+      </c>
+      <c r="K18" t="n">
         <v>127.65</v>
       </c>
-      <c r="J18" t="n">
+      <c r="L18" t="n">
         <v>128.11</v>
       </c>
-      <c r="K18" t="n">
+      <c r="M18" t="n">
         <v>-0.460000000000008</v>
       </c>
-      <c r="L18" t="n">
+      <c r="N18" t="n">
         <v>-0.36</v>
       </c>
     </row>
@@ -1371,51 +1483,57 @@
       <c r="A19" s="1" t="n">
         <v>17</v>
       </c>
-      <c r="B19" t="inlineStr">
+      <c r="B19" t="n">
+        <v>17</v>
+      </c>
+      <c r="C19" t="n">
+        <v>17</v>
+      </c>
+      <c r="D19" t="inlineStr">
         <is>
           <t>GAZP</t>
         </is>
       </c>
-      <c r="C19" t="inlineStr">
+      <c r="E19" t="inlineStr">
         <is>
           <t>1731674010.679701</t>
         </is>
       </c>
-      <c r="D19" t="inlineStr">
+      <c r="F19" t="inlineStr">
         <is>
           <t>1731674015.2126129</t>
         </is>
       </c>
-      <c r="E19" t="inlineStr">
+      <c r="G19" t="inlineStr">
         <is>
           <t>./test_images/GAZP1731674010.679701.png</t>
         </is>
       </c>
-      <c r="F19" t="inlineStr">
+      <c r="H19" t="inlineStr">
         <is>
           <t>./test_images/GAZP1731674015.2126129.png</t>
         </is>
       </c>
-      <c r="G19" t="inlineStr">
+      <c r="I19" t="inlineStr">
         <is>
           <t>long</t>
         </is>
       </c>
-      <c r="H19" t="inlineStr">
-        <is>
-          <t>ST3</t>
-        </is>
-      </c>
-      <c r="I19" t="n">
+      <c r="J19" t="inlineStr">
+        <is>
+          <t>ST3</t>
+        </is>
+      </c>
+      <c r="K19" t="n">
         <v>128.6</v>
       </c>
-      <c r="J19" t="n">
+      <c r="L19" t="n">
         <v>128.62</v>
       </c>
-      <c r="K19" t="n">
+      <c r="M19" t="n">
         <v>0.02000000000001023</v>
       </c>
-      <c r="L19" t="n">
+      <c r="N19" t="n">
         <v>0.02</v>
       </c>
     </row>
@@ -1423,51 +1541,57 @@
       <c r="A20" s="1" t="n">
         <v>18</v>
       </c>
-      <c r="B20" t="inlineStr">
+      <c r="B20" t="n">
+        <v>18</v>
+      </c>
+      <c r="C20" t="n">
+        <v>18</v>
+      </c>
+      <c r="D20" t="inlineStr">
         <is>
           <t>LKOH</t>
         </is>
       </c>
-      <c r="C20" t="inlineStr">
+      <c r="E20" t="inlineStr">
         <is>
           <t>1731674031.3410513</t>
         </is>
       </c>
-      <c r="D20" t="inlineStr">
+      <c r="F20" t="inlineStr">
         <is>
           <t>1731674032.2843463</t>
         </is>
       </c>
-      <c r="E20" t="inlineStr">
+      <c r="G20" t="inlineStr">
         <is>
           <t>./test_images/LKOH1731674031.3410513.png</t>
         </is>
       </c>
-      <c r="F20" t="inlineStr">
+      <c r="H20" t="inlineStr">
         <is>
           <t>./test_images/LKOH1731674032.2843463.png</t>
         </is>
       </c>
-      <c r="G20" t="inlineStr">
+      <c r="I20" t="inlineStr">
         <is>
           <t>short</t>
         </is>
       </c>
-      <c r="H20" t="inlineStr">
-        <is>
-          <t>ST3</t>
-        </is>
-      </c>
-      <c r="I20" t="n">
+      <c r="J20" t="inlineStr">
+        <is>
+          <t>ST3</t>
+        </is>
+      </c>
+      <c r="K20" t="n">
         <v>6385</v>
       </c>
-      <c r="J20" t="n">
+      <c r="L20" t="n">
         <v>6377</v>
       </c>
-      <c r="K20" t="n">
+      <c r="M20" t="n">
         <v>8</v>
       </c>
-      <c r="L20" t="n">
+      <c r="N20" t="n">
         <v>0.13</v>
       </c>
     </row>
@@ -1475,51 +1599,57 @@
       <c r="A21" s="1" t="n">
         <v>19</v>
       </c>
-      <c r="B21" t="inlineStr">
+      <c r="B21" t="n">
+        <v>19</v>
+      </c>
+      <c r="C21" t="n">
+        <v>19</v>
+      </c>
+      <c r="D21" t="inlineStr">
         <is>
           <t>LKOH</t>
         </is>
       </c>
-      <c r="C21" t="inlineStr">
+      <c r="E21" t="inlineStr">
         <is>
           <t>1731674034.085398</t>
         </is>
       </c>
-      <c r="D21" t="inlineStr">
+      <c r="F21" t="inlineStr">
         <is>
           <t>1731674038.2675054</t>
         </is>
       </c>
-      <c r="E21" t="inlineStr">
+      <c r="G21" t="inlineStr">
         <is>
           <t>./test_images/LKOH1731674034.085398.png</t>
         </is>
       </c>
-      <c r="F21" t="inlineStr">
+      <c r="H21" t="inlineStr">
         <is>
           <t>./test_images/LKOH1731674038.2675054.png</t>
         </is>
       </c>
-      <c r="G21" t="inlineStr">
+      <c r="I21" t="inlineStr">
         <is>
           <t>short</t>
         </is>
       </c>
-      <c r="H21" t="inlineStr">
-        <is>
-          <t>ST3</t>
-        </is>
-      </c>
-      <c r="I21" t="n">
+      <c r="J21" t="inlineStr">
+        <is>
+          <t>ST3</t>
+        </is>
+      </c>
+      <c r="K21" t="n">
         <v>6375</v>
       </c>
-      <c r="J21" t="n">
+      <c r="L21" t="n">
         <v>6406</v>
       </c>
-      <c r="K21" t="n">
+      <c r="M21" t="n">
         <v>-31</v>
       </c>
-      <c r="L21" t="n">
+      <c r="N21" t="n">
         <v>-0.49</v>
       </c>
     </row>
@@ -1527,51 +1657,57 @@
       <c r="A22" s="1" t="n">
         <v>20</v>
       </c>
-      <c r="B22" t="inlineStr">
+      <c r="B22" t="n">
+        <v>20</v>
+      </c>
+      <c r="C22" t="n">
+        <v>20</v>
+      </c>
+      <c r="D22" t="inlineStr">
         <is>
           <t>LKOH</t>
         </is>
       </c>
-      <c r="C22" t="inlineStr">
+      <c r="E22" t="inlineStr">
         <is>
           <t>1731674038.5931592</t>
         </is>
       </c>
-      <c r="D22" t="inlineStr">
+      <c r="F22" t="inlineStr">
         <is>
           <t>1731674038.84804</t>
         </is>
       </c>
-      <c r="E22" t="inlineStr">
+      <c r="G22" t="inlineStr">
         <is>
           <t>./test_images/LKOH1731674038.5931592.png</t>
         </is>
       </c>
-      <c r="F22" t="inlineStr">
+      <c r="H22" t="inlineStr">
         <is>
           <t>./test_images/LKOH1731674038.84804.png</t>
         </is>
       </c>
-      <c r="G22" t="inlineStr">
+      <c r="I22" t="inlineStr">
         <is>
           <t>long</t>
         </is>
       </c>
-      <c r="H22" t="inlineStr">
-        <is>
-          <t>ST3</t>
-        </is>
-      </c>
-      <c r="I22" t="n">
+      <c r="J22" t="inlineStr">
+        <is>
+          <t>ST3</t>
+        </is>
+      </c>
+      <c r="K22" t="n">
         <v>6407.5</v>
       </c>
-      <c r="J22" t="n">
+      <c r="L22" t="n">
         <v>6416.5</v>
       </c>
-      <c r="K22" t="n">
+      <c r="M22" t="n">
         <v>9</v>
       </c>
-      <c r="L22" t="n">
+      <c r="N22" t="n">
         <v>0.14</v>
       </c>
     </row>
@@ -1579,51 +1715,57 @@
       <c r="A23" s="1" t="n">
         <v>21</v>
       </c>
-      <c r="B23" t="inlineStr">
+      <c r="B23" t="n">
+        <v>21</v>
+      </c>
+      <c r="C23" t="n">
+        <v>21</v>
+      </c>
+      <c r="D23" t="inlineStr">
         <is>
           <t>ROSN</t>
         </is>
       </c>
-      <c r="C23" t="inlineStr">
+      <c r="E23" t="inlineStr">
         <is>
           <t>1731674058.3986442</t>
         </is>
       </c>
-      <c r="D23" t="inlineStr">
+      <c r="F23" t="inlineStr">
         <is>
           <t>1731674058.5334551</t>
         </is>
       </c>
-      <c r="E23" t="inlineStr">
+      <c r="G23" t="inlineStr">
         <is>
           <t>./test_images/ROSN1731674058.3986442.png</t>
         </is>
       </c>
-      <c r="F23" t="inlineStr">
+      <c r="H23" t="inlineStr">
         <is>
           <t>./test_images/ROSN1731674058.5334551.png</t>
         </is>
       </c>
-      <c r="G23" t="inlineStr">
+      <c r="I23" t="inlineStr">
         <is>
           <t>short</t>
         </is>
       </c>
-      <c r="H23" t="inlineStr">
-        <is>
-          <t>ST3</t>
-        </is>
-      </c>
-      <c r="I23" t="n">
+      <c r="J23" t="inlineStr">
+        <is>
+          <t>ST3</t>
+        </is>
+      </c>
+      <c r="K23" t="n">
         <v>495.55</v>
       </c>
-      <c r="J23" t="n">
+      <c r="L23" t="n">
         <v>494.8</v>
       </c>
-      <c r="K23" t="n">
+      <c r="M23" t="n">
         <v>0.75</v>
       </c>
-      <c r="L23" t="n">
+      <c r="N23" t="n">
         <v>0.15</v>
       </c>
     </row>
@@ -1631,51 +1773,57 @@
       <c r="A24" s="1" t="n">
         <v>22</v>
       </c>
-      <c r="B24" t="inlineStr">
+      <c r="B24" t="n">
+        <v>22</v>
+      </c>
+      <c r="C24" t="n">
+        <v>22</v>
+      </c>
+      <c r="D24" t="inlineStr">
         <is>
           <t>MOEX</t>
         </is>
       </c>
-      <c r="C24" t="inlineStr">
+      <c r="E24" t="inlineStr">
         <is>
           <t>1731674072.492623</t>
         </is>
       </c>
-      <c r="D24" t="inlineStr">
+      <c r="F24" t="inlineStr">
         <is>
           <t>1731674073.423731</t>
         </is>
       </c>
-      <c r="E24" t="inlineStr">
+      <c r="G24" t="inlineStr">
         <is>
           <t>./test_images/MOEX1731674072.492623.png</t>
         </is>
       </c>
-      <c r="F24" t="inlineStr">
+      <c r="H24" t="inlineStr">
         <is>
           <t>./test_images/MOEX1731674073.423731.png</t>
         </is>
       </c>
-      <c r="G24" t="inlineStr">
+      <c r="I24" t="inlineStr">
         <is>
           <t>long</t>
         </is>
       </c>
-      <c r="H24" t="inlineStr">
-        <is>
-          <t>ST3</t>
-        </is>
-      </c>
-      <c r="I24" t="n">
+      <c r="J24" t="inlineStr">
+        <is>
+          <t>ST3</t>
+        </is>
+      </c>
+      <c r="K24" t="n">
         <v>225.5</v>
       </c>
-      <c r="J24" t="n">
+      <c r="L24" t="n">
         <v>226.22</v>
       </c>
-      <c r="K24" t="n">
+      <c r="M24" t="n">
         <v>0.7199999999999989</v>
       </c>
-      <c r="L24" t="n">
+      <c r="N24" t="n">
         <v>0.32</v>
       </c>
     </row>
@@ -1683,51 +1831,57 @@
       <c r="A25" s="1" t="n">
         <v>23</v>
       </c>
-      <c r="B25" t="inlineStr">
+      <c r="B25" t="n">
+        <v>23</v>
+      </c>
+      <c r="C25" t="n">
+        <v>23</v>
+      </c>
+      <c r="D25" t="inlineStr">
         <is>
           <t>MOEX</t>
         </is>
       </c>
-      <c r="C25" t="inlineStr">
+      <c r="E25" t="inlineStr">
         <is>
           <t>1731674074.3223221</t>
         </is>
       </c>
-      <c r="D25" t="inlineStr">
+      <c r="F25" t="inlineStr">
         <is>
           <t>1731674076.327811</t>
         </is>
       </c>
-      <c r="E25" t="inlineStr">
+      <c r="G25" t="inlineStr">
         <is>
           <t>./test_images/MOEX1731674074.3223221.png</t>
         </is>
       </c>
-      <c r="F25" t="inlineStr">
+      <c r="H25" t="inlineStr">
         <is>
           <t>./test_images/MOEX1731674076.327811.png</t>
         </is>
       </c>
-      <c r="G25" t="inlineStr">
+      <c r="I25" t="inlineStr">
         <is>
           <t>long</t>
         </is>
       </c>
-      <c r="H25" t="inlineStr">
-        <is>
-          <t>ST3</t>
-        </is>
-      </c>
-      <c r="I25" t="n">
+      <c r="J25" t="inlineStr">
+        <is>
+          <t>ST3</t>
+        </is>
+      </c>
+      <c r="K25" t="n">
         <v>225.93</v>
       </c>
-      <c r="J25" t="n">
+      <c r="L25" t="n">
         <v>225.66</v>
       </c>
-      <c r="K25" t="n">
+      <c r="M25" t="n">
         <v>-0.2700000000000102</v>
       </c>
-      <c r="L25" t="n">
+      <c r="N25" t="n">
         <v>-0.12</v>
       </c>
     </row>
@@ -1735,51 +1889,57 @@
       <c r="A26" s="1" t="n">
         <v>24</v>
       </c>
-      <c r="B26" t="inlineStr">
+      <c r="B26" t="n">
+        <v>24</v>
+      </c>
+      <c r="C26" t="n">
+        <v>24</v>
+      </c>
+      <c r="D26" t="inlineStr">
         <is>
           <t>MOEX</t>
         </is>
       </c>
-      <c r="C26" t="inlineStr">
+      <c r="E26" t="inlineStr">
         <is>
           <t>1731674084.722517</t>
         </is>
       </c>
-      <c r="D26" t="inlineStr">
+      <c r="F26" t="inlineStr">
         <is>
           <t>1731674086.9721396</t>
         </is>
       </c>
-      <c r="E26" t="inlineStr">
+      <c r="G26" t="inlineStr">
         <is>
           <t>./test_images/MOEX1731674084.722517.png</t>
         </is>
       </c>
-      <c r="F26" t="inlineStr">
+      <c r="H26" t="inlineStr">
         <is>
           <t>./test_images/MOEX1731674086.9721396.png</t>
         </is>
       </c>
-      <c r="G26" t="inlineStr">
+      <c r="I26" t="inlineStr">
         <is>
           <t>long</t>
         </is>
       </c>
-      <c r="H26" t="inlineStr">
-        <is>
-          <t>ST3</t>
-        </is>
-      </c>
-      <c r="I26" t="n">
+      <c r="J26" t="inlineStr">
+        <is>
+          <t>ST3</t>
+        </is>
+      </c>
+      <c r="K26" t="n">
         <v>226.98</v>
       </c>
-      <c r="J26" t="n">
+      <c r="L26" t="n">
         <v>225.54</v>
       </c>
-      <c r="K26" t="n">
+      <c r="M26" t="n">
         <v>-1.439999999999998</v>
       </c>
-      <c r="L26" t="n">
+      <c r="N26" t="n">
         <v>-0.63</v>
       </c>
     </row>
@@ -1787,51 +1947,57 @@
       <c r="A27" s="1" t="n">
         <v>25</v>
       </c>
-      <c r="B27" t="inlineStr">
+      <c r="B27" t="n">
+        <v>25</v>
+      </c>
+      <c r="C27" t="n">
+        <v>25</v>
+      </c>
+      <c r="D27" t="inlineStr">
         <is>
           <t>MOEX</t>
         </is>
       </c>
-      <c r="C27" t="inlineStr">
+      <c r="E27" t="inlineStr">
         <is>
           <t>1731674086.986075</t>
         </is>
       </c>
-      <c r="D27" t="inlineStr">
+      <c r="F27" t="inlineStr">
         <is>
           <t>1731674087.546761</t>
         </is>
       </c>
-      <c r="E27" t="inlineStr">
+      <c r="G27" t="inlineStr">
         <is>
           <t>./test_images/MOEX1731674086.986075.png</t>
         </is>
       </c>
-      <c r="F27" t="inlineStr">
+      <c r="H27" t="inlineStr">
         <is>
           <t>./test_images/MOEX1731674087.546761.png</t>
         </is>
       </c>
-      <c r="G27" t="inlineStr">
+      <c r="I27" t="inlineStr">
         <is>
           <t>short</t>
         </is>
       </c>
-      <c r="H27" t="inlineStr">
-        <is>
-          <t>ST3</t>
-        </is>
-      </c>
-      <c r="I27" t="n">
+      <c r="J27" t="inlineStr">
+        <is>
+          <t>ST3</t>
+        </is>
+      </c>
+      <c r="K27" t="n">
         <v>225.54</v>
       </c>
-      <c r="J27" t="n">
+      <c r="L27" t="n">
         <v>225.36</v>
       </c>
-      <c r="K27" t="n">
+      <c r="M27" t="n">
         <v>0.1799999999999784</v>
       </c>
-      <c r="L27" t="n">
+      <c r="N27" t="n">
         <v>0.08</v>
       </c>
     </row>
@@ -1839,51 +2005,57 @@
       <c r="A28" s="1" t="n">
         <v>26</v>
       </c>
-      <c r="B28" t="inlineStr">
+      <c r="B28" t="n">
+        <v>26</v>
+      </c>
+      <c r="C28" t="n">
+        <v>26</v>
+      </c>
+      <c r="D28" t="inlineStr">
         <is>
           <t>MOEX</t>
         </is>
       </c>
-      <c r="C28" t="inlineStr">
+      <c r="E28" t="inlineStr">
         <is>
           <t>1731674088.6968968</t>
         </is>
       </c>
-      <c r="D28" t="inlineStr">
+      <c r="F28" t="inlineStr">
         <is>
           <t>1731674089.5015063</t>
         </is>
       </c>
-      <c r="E28" t="inlineStr">
+      <c r="G28" t="inlineStr">
         <is>
           <t>./test_images/MOEX1731674088.6968968.png</t>
         </is>
       </c>
-      <c r="F28" t="inlineStr">
+      <c r="H28" t="inlineStr">
         <is>
           <t>./test_images/MOEX1731674089.5015063.png</t>
         </is>
       </c>
-      <c r="G28" t="inlineStr">
+      <c r="I28" t="inlineStr">
         <is>
           <t>short</t>
         </is>
       </c>
-      <c r="H28" t="inlineStr">
-        <is>
-          <t>ST3</t>
-        </is>
-      </c>
-      <c r="I28" t="n">
+      <c r="J28" t="inlineStr">
+        <is>
+          <t>ST3</t>
+        </is>
+      </c>
+      <c r="K28" t="n">
         <v>224.77</v>
       </c>
-      <c r="J28" t="n">
+      <c r="L28" t="n">
         <v>224.65</v>
       </c>
-      <c r="K28" t="n">
+      <c r="M28" t="n">
         <v>0.1200000000000045</v>
       </c>
-      <c r="L28" t="n">
+      <c r="N28" t="n">
         <v>0.05</v>
       </c>
     </row>
@@ -1891,51 +2063,57 @@
       <c r="A29" s="1" t="n">
         <v>27</v>
       </c>
-      <c r="B29" t="inlineStr">
+      <c r="B29" t="n">
+        <v>27</v>
+      </c>
+      <c r="C29" t="n">
+        <v>27</v>
+      </c>
+      <c r="D29" t="inlineStr">
         <is>
           <t>MOEX</t>
         </is>
       </c>
-      <c r="C29" t="inlineStr">
+      <c r="E29" t="inlineStr">
         <is>
           <t>1731674093.8890445</t>
         </is>
       </c>
-      <c r="D29" t="inlineStr">
+      <c r="F29" t="inlineStr">
         <is>
           <t>1731674096.2823527</t>
         </is>
       </c>
-      <c r="E29" t="inlineStr">
+      <c r="G29" t="inlineStr">
         <is>
           <t>./test_images/MOEX1731674093.8890445.png</t>
         </is>
       </c>
-      <c r="F29" t="inlineStr">
+      <c r="H29" t="inlineStr">
         <is>
           <t>./test_images/MOEX1731674096.2823527.png</t>
         </is>
       </c>
-      <c r="G29" t="inlineStr">
+      <c r="I29" t="inlineStr">
         <is>
           <t>long</t>
         </is>
       </c>
-      <c r="H29" t="inlineStr">
-        <is>
-          <t>ST3</t>
-        </is>
-      </c>
-      <c r="I29" t="n">
+      <c r="J29" t="inlineStr">
+        <is>
+          <t>ST3</t>
+        </is>
+      </c>
+      <c r="K29" t="n">
         <v>226.08</v>
       </c>
-      <c r="J29" t="n">
+      <c r="L29" t="n">
         <v>226.19</v>
       </c>
-      <c r="K29" t="n">
+      <c r="M29" t="n">
         <v>0.1099999999999852</v>
       </c>
-      <c r="L29" t="n">
+      <c r="N29" t="n">
         <v>0.05</v>
       </c>
     </row>
@@ -1943,51 +2121,57 @@
       <c r="A30" s="1" t="n">
         <v>28</v>
       </c>
-      <c r="B30" t="inlineStr">
+      <c r="B30" t="n">
+        <v>28</v>
+      </c>
+      <c r="C30" t="n">
+        <v>28</v>
+      </c>
+      <c r="D30" t="inlineStr">
         <is>
           <t>NVTK</t>
         </is>
       </c>
-      <c r="C30" t="inlineStr">
+      <c r="E30" t="inlineStr">
         <is>
           <t>1731674113.6186326</t>
         </is>
       </c>
-      <c r="D30" t="inlineStr">
+      <c r="F30" t="inlineStr">
         <is>
           <t>1731674114.1937022</t>
         </is>
       </c>
-      <c r="E30" t="inlineStr">
+      <c r="G30" t="inlineStr">
         <is>
           <t>./test_images/NVTK1731674113.6186326.png</t>
         </is>
       </c>
-      <c r="F30" t="inlineStr">
+      <c r="H30" t="inlineStr">
         <is>
           <t>./test_images/NVTK1731674114.1937022.png</t>
         </is>
       </c>
-      <c r="G30" t="inlineStr">
+      <c r="I30" t="inlineStr">
         <is>
           <t>short</t>
         </is>
       </c>
-      <c r="H30" t="inlineStr">
-        <is>
-          <t>ST3</t>
-        </is>
-      </c>
-      <c r="I30" t="n">
+      <c r="J30" t="inlineStr">
+        <is>
+          <t>ST3</t>
+        </is>
+      </c>
+      <c r="K30" t="n">
         <v>1006.6</v>
       </c>
-      <c r="J30" t="n">
+      <c r="L30" t="n">
         <v>1002.8</v>
       </c>
-      <c r="K30" t="n">
+      <c r="M30" t="n">
         <v>3.800000000000068</v>
       </c>
-      <c r="L30" t="n">
+      <c r="N30" t="n">
         <v>0.38</v>
       </c>
     </row>
@@ -1995,51 +2179,57 @@
       <c r="A31" s="1" t="n">
         <v>29</v>
       </c>
-      <c r="B31" t="inlineStr">
+      <c r="B31" t="n">
+        <v>29</v>
+      </c>
+      <c r="C31" t="n">
+        <v>29</v>
+      </c>
+      <c r="D31" t="inlineStr">
         <is>
           <t>NVTK</t>
         </is>
       </c>
-      <c r="C31" t="inlineStr">
+      <c r="E31" t="inlineStr">
         <is>
           <t>1731674114.7206998</t>
         </is>
       </c>
-      <c r="D31" t="inlineStr">
+      <c r="F31" t="inlineStr">
         <is>
           <t>1731674117.2899983</t>
         </is>
       </c>
-      <c r="E31" t="inlineStr">
+      <c r="G31" t="inlineStr">
         <is>
           <t>./test_images/NVTK1731674114.7206998.png</t>
         </is>
       </c>
-      <c r="F31" t="inlineStr">
+      <c r="H31" t="inlineStr">
         <is>
           <t>./test_images/NVTK1731674117.2899983.png</t>
         </is>
       </c>
-      <c r="G31" t="inlineStr">
+      <c r="I31" t="inlineStr">
         <is>
           <t>short</t>
         </is>
       </c>
-      <c r="H31" t="inlineStr">
-        <is>
-          <t>ST3</t>
-        </is>
-      </c>
-      <c r="I31" t="n">
+      <c r="J31" t="inlineStr">
+        <is>
+          <t>ST3</t>
+        </is>
+      </c>
+      <c r="K31" t="n">
         <v>1003.8</v>
       </c>
-      <c r="J31" t="n">
+      <c r="L31" t="n">
         <v>1002.6</v>
       </c>
-      <c r="K31" t="n">
+      <c r="M31" t="n">
         <v>1.199999999999932</v>
       </c>
-      <c r="L31" t="n">
+      <c r="N31" t="n">
         <v>0.12</v>
       </c>
     </row>
@@ -2047,51 +2237,57 @@
       <c r="A32" s="1" t="n">
         <v>30</v>
       </c>
-      <c r="B32" t="inlineStr">
+      <c r="B32" t="n">
+        <v>30</v>
+      </c>
+      <c r="C32" t="n">
+        <v>30</v>
+      </c>
+      <c r="D32" t="inlineStr">
         <is>
           <t>NVTK</t>
         </is>
       </c>
-      <c r="C32" t="inlineStr">
+      <c r="E32" t="inlineStr">
         <is>
           <t>1731674119.174987</t>
         </is>
       </c>
-      <c r="D32" t="inlineStr">
+      <c r="F32" t="inlineStr">
         <is>
           <t>1731674120.9811466</t>
         </is>
       </c>
-      <c r="E32" t="inlineStr">
+      <c r="G32" t="inlineStr">
         <is>
           <t>./test_images/NVTK1731674119.174987.png</t>
         </is>
       </c>
-      <c r="F32" t="inlineStr">
+      <c r="H32" t="inlineStr">
         <is>
           <t>./test_images/NVTK1731674120.9811466.png</t>
         </is>
       </c>
-      <c r="G32" t="inlineStr">
+      <c r="I32" t="inlineStr">
         <is>
           <t>short</t>
         </is>
       </c>
-      <c r="H32" t="inlineStr">
-        <is>
-          <t>ST3</t>
-        </is>
-      </c>
-      <c r="I32" t="n">
+      <c r="J32" t="inlineStr">
+        <is>
+          <t>ST3</t>
+        </is>
+      </c>
+      <c r="K32" t="n">
         <v>1002.6</v>
       </c>
-      <c r="J32" t="n">
+      <c r="L32" t="n">
         <v>1004.8</v>
       </c>
-      <c r="K32" t="n">
+      <c r="M32" t="n">
         <v>-2.199999999999932</v>
       </c>
-      <c r="L32" t="n">
+      <c r="N32" t="n">
         <v>-0.22</v>
       </c>
     </row>
@@ -2099,101 +2295,113 @@
       <c r="A33" s="1" t="n">
         <v>31</v>
       </c>
-      <c r="B33" t="inlineStr">
+      <c r="B33" t="n">
+        <v>31</v>
+      </c>
+      <c r="C33" t="n">
+        <v>31</v>
+      </c>
+      <c r="D33" t="inlineStr">
         <is>
           <t>MXI</t>
         </is>
       </c>
-      <c r="C33" t="inlineStr">
+      <c r="E33" t="inlineStr">
         <is>
           <t>1731674120.740103</t>
         </is>
       </c>
-      <c r="D33" t="inlineStr">
+      <c r="F33" t="inlineStr">
         <is>
           <t>1731674140.2010167</t>
         </is>
       </c>
-      <c r="E33" t="inlineStr">
+      <c r="G33" t="inlineStr">
         <is>
           <t>./test_images/MXI1731674120.740103.png</t>
         </is>
       </c>
-      <c r="F33" t="inlineStr">
+      <c r="H33" t="inlineStr">
         <is>
           <t>./test_images/MXI1731674140.2010167.png</t>
         </is>
       </c>
-      <c r="G33" t="inlineStr">
+      <c r="I33" t="inlineStr">
         <is>
           <t>short</t>
         </is>
       </c>
-      <c r="H33" t="inlineStr">
+      <c r="J33" t="inlineStr">
         <is>
           <t>VisualTraider_v3</t>
         </is>
-      </c>
-      <c r="I33" t="n">
-        <v>0</v>
-      </c>
-      <c r="J33" t="n">
-        <v>0</v>
       </c>
       <c r="K33" t="n">
         <v>0</v>
       </c>
-      <c r="L33" t="inlineStr"/>
+      <c r="L33" t="n">
+        <v>0</v>
+      </c>
+      <c r="M33" t="n">
+        <v>0</v>
+      </c>
+      <c r="N33" t="inlineStr"/>
     </row>
     <row r="34">
       <c r="A34" s="1" t="n">
         <v>32</v>
       </c>
-      <c r="B34" t="inlineStr">
+      <c r="B34" t="n">
+        <v>32</v>
+      </c>
+      <c r="C34" t="n">
+        <v>32</v>
+      </c>
+      <c r="D34" t="inlineStr">
         <is>
           <t>NVTK</t>
         </is>
       </c>
-      <c r="C34" t="inlineStr">
+      <c r="E34" t="inlineStr">
         <is>
           <t>1731674123.5886776</t>
         </is>
       </c>
-      <c r="D34" t="inlineStr">
+      <c r="F34" t="inlineStr">
         <is>
           <t>1731674124.6131651</t>
         </is>
       </c>
-      <c r="E34" t="inlineStr">
+      <c r="G34" t="inlineStr">
         <is>
           <t>./test_images/NVTK1731674123.5886776.png</t>
         </is>
       </c>
-      <c r="F34" t="inlineStr">
+      <c r="H34" t="inlineStr">
         <is>
           <t>./test_images/NVTK1731674124.6131651.png</t>
         </is>
       </c>
-      <c r="G34" t="inlineStr">
+      <c r="I34" t="inlineStr">
         <is>
           <t>short</t>
         </is>
       </c>
-      <c r="H34" t="inlineStr">
-        <is>
-          <t>ST3</t>
-        </is>
-      </c>
-      <c r="I34" t="n">
+      <c r="J34" t="inlineStr">
+        <is>
+          <t>ST3</t>
+        </is>
+      </c>
+      <c r="K34" t="n">
         <v>1004.4</v>
       </c>
-      <c r="J34" t="n">
+      <c r="L34" t="n">
         <v>1005.4</v>
       </c>
-      <c r="K34" t="n">
+      <c r="M34" t="n">
         <v>-1</v>
       </c>
-      <c r="L34" t="n">
+      <c r="N34" t="n">
         <v>-0.1</v>
       </c>
     </row>
@@ -2201,51 +2409,57 @@
       <c r="A35" s="1" t="n">
         <v>33</v>
       </c>
-      <c r="B35" t="inlineStr">
+      <c r="B35" t="n">
+        <v>33</v>
+      </c>
+      <c r="C35" t="n">
+        <v>33</v>
+      </c>
+      <c r="D35" t="inlineStr">
         <is>
           <t>NVTK</t>
         </is>
       </c>
-      <c r="C35" t="inlineStr">
+      <c r="E35" t="inlineStr">
         <is>
           <t>1731674124.6290946</t>
         </is>
       </c>
-      <c r="D35" t="inlineStr">
+      <c r="F35" t="inlineStr">
         <is>
           <t>1731674126.7684045</t>
         </is>
       </c>
-      <c r="E35" t="inlineStr">
+      <c r="G35" t="inlineStr">
         <is>
           <t>./test_images/NVTK1731674124.6290946.png</t>
         </is>
       </c>
-      <c r="F35" t="inlineStr">
+      <c r="H35" t="inlineStr">
         <is>
           <t>./test_images/NVTK1731674126.7684045.png</t>
         </is>
       </c>
-      <c r="G35" t="inlineStr">
+      <c r="I35" t="inlineStr">
         <is>
           <t>long</t>
         </is>
       </c>
-      <c r="H35" t="inlineStr">
-        <is>
-          <t>ST3</t>
-        </is>
-      </c>
-      <c r="I35" t="n">
+      <c r="J35" t="inlineStr">
+        <is>
+          <t>ST3</t>
+        </is>
+      </c>
+      <c r="K35" t="n">
         <v>1005.4</v>
       </c>
-      <c r="J35" t="n">
+      <c r="L35" t="n">
         <v>1004.2</v>
       </c>
-      <c r="K35" t="n">
+      <c r="M35" t="n">
         <v>-1.199999999999932</v>
       </c>
-      <c r="L35" t="n">
+      <c r="N35" t="n">
         <v>-0.12</v>
       </c>
     </row>
@@ -2253,51 +2467,57 @@
       <c r="A36" s="1" t="n">
         <v>34</v>
       </c>
-      <c r="B36" t="inlineStr">
+      <c r="B36" t="n">
+        <v>34</v>
+      </c>
+      <c r="C36" t="n">
+        <v>34</v>
+      </c>
+      <c r="D36" t="inlineStr">
         <is>
           <t>CNY</t>
         </is>
       </c>
-      <c r="C36" t="inlineStr">
+      <c r="E36" t="inlineStr">
         <is>
           <t>1731674130.8504412</t>
         </is>
       </c>
-      <c r="D36" t="inlineStr">
+      <c r="F36" t="inlineStr">
         <is>
           <t>1731674131.4939642</t>
         </is>
       </c>
-      <c r="E36" t="inlineStr">
+      <c r="G36" t="inlineStr">
         <is>
           <t>./test_images/CNY1731674130.8504412.png</t>
         </is>
       </c>
-      <c r="F36" t="inlineStr">
+      <c r="H36" t="inlineStr">
         <is>
           <t>./test_images/CNY1731674131.4939642.png</t>
         </is>
       </c>
-      <c r="G36" t="inlineStr">
+      <c r="I36" t="inlineStr">
         <is>
           <t>short</t>
         </is>
       </c>
-      <c r="H36" t="inlineStr">
-        <is>
-          <t>ST3</t>
-        </is>
-      </c>
-      <c r="I36" t="n">
+      <c r="J36" t="inlineStr">
+        <is>
+          <t>ST3</t>
+        </is>
+      </c>
+      <c r="K36" t="n">
         <v>11.857</v>
       </c>
-      <c r="J36" t="n">
+      <c r="L36" t="n">
         <v>11.855</v>
       </c>
-      <c r="K36" t="n">
+      <c r="M36" t="n">
         <v>0.001999999999998892</v>
       </c>
-      <c r="L36" t="n">
+      <c r="N36" t="n">
         <v>0.02</v>
       </c>
     </row>
@@ -2305,51 +2525,57 @@
       <c r="A37" s="1" t="n">
         <v>35</v>
       </c>
-      <c r="B37" t="inlineStr">
+      <c r="B37" t="n">
+        <v>35</v>
+      </c>
+      <c r="C37" t="n">
+        <v>35</v>
+      </c>
+      <c r="D37" t="inlineStr">
         <is>
           <t>CNY</t>
         </is>
       </c>
-      <c r="C37" t="inlineStr">
+      <c r="E37" t="inlineStr">
         <is>
           <t>1731674131.8776731</t>
         </is>
       </c>
-      <c r="D37" t="inlineStr">
+      <c r="F37" t="inlineStr">
         <is>
           <t>1731674133.0656042</t>
         </is>
       </c>
-      <c r="E37" t="inlineStr">
+      <c r="G37" t="inlineStr">
         <is>
           <t>./test_images/CNY1731674131.8776731.png</t>
         </is>
       </c>
-      <c r="F37" t="inlineStr">
+      <c r="H37" t="inlineStr">
         <is>
           <t>./test_images/CNY1731674133.0656042.png</t>
         </is>
       </c>
-      <c r="G37" t="inlineStr">
+      <c r="I37" t="inlineStr">
         <is>
           <t>short</t>
         </is>
       </c>
-      <c r="H37" t="inlineStr">
-        <is>
-          <t>ST3</t>
-        </is>
-      </c>
-      <c r="I37" t="n">
+      <c r="J37" t="inlineStr">
+        <is>
+          <t>ST3</t>
+        </is>
+      </c>
+      <c r="K37" t="n">
         <v>11.842</v>
       </c>
-      <c r="J37" t="n">
+      <c r="L37" t="n">
         <v>11.839</v>
       </c>
-      <c r="K37" t="n">
+      <c r="M37" t="n">
         <v>0.003000000000000114</v>
       </c>
-      <c r="L37" t="n">
+      <c r="N37" t="n">
         <v>0.03</v>
       </c>
     </row>
@@ -2357,51 +2583,57 @@
       <c r="A38" s="1" t="n">
         <v>36</v>
       </c>
-      <c r="B38" t="inlineStr">
+      <c r="B38" t="n">
+        <v>36</v>
+      </c>
+      <c r="C38" t="n">
+        <v>36</v>
+      </c>
+      <c r="D38" t="inlineStr">
         <is>
           <t>CNY</t>
         </is>
       </c>
-      <c r="C38" t="inlineStr">
+      <c r="E38" t="inlineStr">
         <is>
           <t>1731674133.6552038</t>
         </is>
       </c>
-      <c r="D38" t="inlineStr">
+      <c r="F38" t="inlineStr">
         <is>
           <t>1731674133.941691</t>
         </is>
       </c>
-      <c r="E38" t="inlineStr">
+      <c r="G38" t="inlineStr">
         <is>
           <t>./test_images/CNY1731674133.6552038.png</t>
         </is>
       </c>
-      <c r="F38" t="inlineStr">
+      <c r="H38" t="inlineStr">
         <is>
           <t>./test_images/CNY1731674133.941691.png</t>
         </is>
       </c>
-      <c r="G38" t="inlineStr">
+      <c r="I38" t="inlineStr">
         <is>
           <t>short</t>
         </is>
       </c>
-      <c r="H38" t="inlineStr">
-        <is>
-          <t>ST3</t>
-        </is>
-      </c>
-      <c r="I38" t="n">
+      <c r="J38" t="inlineStr">
+        <is>
+          <t>ST3</t>
+        </is>
+      </c>
+      <c r="K38" t="n">
         <v>11.841</v>
       </c>
-      <c r="J38" t="n">
+      <c r="L38" t="n">
         <v>11.826</v>
       </c>
-      <c r="K38" t="n">
+      <c r="M38" t="n">
         <v>0.01499999999999879</v>
       </c>
-      <c r="L38" t="n">
+      <c r="N38" t="n">
         <v>0.13</v>
       </c>
     </row>
@@ -2409,51 +2641,57 @@
       <c r="A39" s="1" t="n">
         <v>37</v>
       </c>
-      <c r="B39" t="inlineStr">
+      <c r="B39" t="n">
+        <v>37</v>
+      </c>
+      <c r="C39" t="n">
+        <v>37</v>
+      </c>
+      <c r="D39" t="inlineStr">
         <is>
           <t>CNY</t>
         </is>
       </c>
-      <c r="C39" t="inlineStr">
+      <c r="E39" t="inlineStr">
         <is>
           <t>1731674134.576553</t>
         </is>
       </c>
-      <c r="D39" t="inlineStr">
+      <c r="F39" t="inlineStr">
         <is>
           <t>1731674135.4450495</t>
         </is>
       </c>
-      <c r="E39" t="inlineStr">
+      <c r="G39" t="inlineStr">
         <is>
           <t>./test_images/CNY1731674134.576553.png</t>
         </is>
       </c>
-      <c r="F39" t="inlineStr">
+      <c r="H39" t="inlineStr">
         <is>
           <t>./test_images/CNY1731674135.4450495.png</t>
         </is>
       </c>
-      <c r="G39" t="inlineStr">
+      <c r="I39" t="inlineStr">
         <is>
           <t>short</t>
         </is>
       </c>
-      <c r="H39" t="inlineStr">
-        <is>
-          <t>ST3</t>
-        </is>
-      </c>
-      <c r="I39" t="n">
+      <c r="J39" t="inlineStr">
+        <is>
+          <t>ST3</t>
+        </is>
+      </c>
+      <c r="K39" t="n">
         <v>11.824</v>
       </c>
-      <c r="J39" t="n">
+      <c r="L39" t="n">
         <v>11.838</v>
       </c>
-      <c r="K39" t="n">
+      <c r="M39" t="n">
         <v>-0.01399999999999935</v>
       </c>
-      <c r="L39" t="n">
+      <c r="N39" t="n">
         <v>-0.12</v>
       </c>
     </row>
@@ -2461,51 +2699,57 @@
       <c r="A40" s="1" t="n">
         <v>38</v>
       </c>
-      <c r="B40" t="inlineStr">
+      <c r="B40" t="n">
+        <v>38</v>
+      </c>
+      <c r="C40" t="n">
+        <v>38</v>
+      </c>
+      <c r="D40" t="inlineStr">
         <is>
           <t>CNY</t>
         </is>
       </c>
-      <c r="C40" t="inlineStr">
+      <c r="E40" t="inlineStr">
         <is>
           <t>1731674148.8360565</t>
         </is>
       </c>
-      <c r="D40" t="inlineStr">
+      <c r="F40" t="inlineStr">
         <is>
           <t>1731674150.8531833</t>
         </is>
       </c>
-      <c r="E40" t="inlineStr">
+      <c r="G40" t="inlineStr">
         <is>
           <t>./test_images/CNY1731674148.8360565.png</t>
         </is>
       </c>
-      <c r="F40" t="inlineStr">
+      <c r="H40" t="inlineStr">
         <is>
           <t>./test_images/CNY1731674150.8531833.png</t>
         </is>
       </c>
-      <c r="G40" t="inlineStr">
+      <c r="I40" t="inlineStr">
         <is>
           <t>long</t>
         </is>
       </c>
-      <c r="H40" t="inlineStr">
-        <is>
-          <t>ST3</t>
-        </is>
-      </c>
-      <c r="I40" t="n">
+      <c r="J40" t="inlineStr">
+        <is>
+          <t>ST3</t>
+        </is>
+      </c>
+      <c r="K40" t="n">
         <v>11.926</v>
       </c>
-      <c r="J40" t="n">
+      <c r="L40" t="n">
         <v>11.914</v>
       </c>
-      <c r="K40" t="n">
+      <c r="M40" t="n">
         <v>-0.01200000000000045</v>
       </c>
-      <c r="L40" t="n">
+      <c r="N40" t="n">
         <v>-0.1</v>
       </c>
     </row>
@@ -2513,95 +2757,107 @@
       <c r="A41" s="1" t="n">
         <v>39</v>
       </c>
-      <c r="B41" t="inlineStr">
+      <c r="B41" t="n">
+        <v>39</v>
+      </c>
+      <c r="C41" t="n">
+        <v>39</v>
+      </c>
+      <c r="D41" t="inlineStr">
         <is>
           <t>CNY</t>
         </is>
       </c>
-      <c r="C41" t="inlineStr">
+      <c r="E41" t="inlineStr">
         <is>
           <t>1731674155.2626512</t>
-        </is>
-      </c>
-      <c r="D41" t="inlineStr"/>
-      <c r="E41" t="inlineStr">
-        <is>
-          <t>./test_images/CNY1731674155.2626512.png</t>
         </is>
       </c>
       <c r="F41" t="inlineStr"/>
       <c r="G41" t="inlineStr">
         <is>
+          <t>./test_images/CNY1731674155.2626512.png</t>
+        </is>
+      </c>
+      <c r="H41" t="inlineStr"/>
+      <c r="I41" t="inlineStr">
+        <is>
           <t>short</t>
         </is>
       </c>
-      <c r="H41" t="inlineStr">
-        <is>
-          <t>ST3</t>
-        </is>
-      </c>
-      <c r="I41" t="n">
+      <c r="J41" t="inlineStr">
+        <is>
+          <t>ST3</t>
+        </is>
+      </c>
+      <c r="K41" t="n">
         <v>11.91</v>
       </c>
-      <c r="J41" t="n">
-        <v>11.91</v>
-      </c>
-      <c r="K41" t="n">
-        <v>0</v>
-      </c>
       <c r="L41" t="n">
-        <v>0</v>
+        <v>11.916</v>
+      </c>
+      <c r="M41" t="n">
+        <v>-0.006000000000000227</v>
+      </c>
+      <c r="N41" t="n">
+        <v>-0.05</v>
       </c>
     </row>
     <row r="42">
       <c r="A42" s="1" t="n">
         <v>40</v>
       </c>
-      <c r="B42" t="inlineStr">
+      <c r="B42" t="n">
+        <v>40</v>
+      </c>
+      <c r="C42" t="n">
+        <v>40</v>
+      </c>
+      <c r="D42" t="inlineStr">
         <is>
           <t>GMKN</t>
         </is>
       </c>
-      <c r="C42" t="inlineStr">
+      <c r="E42" t="inlineStr">
         <is>
           <t>1731674161.2269566</t>
         </is>
       </c>
-      <c r="D42" t="inlineStr">
+      <c r="F42" t="inlineStr">
         <is>
           <t>1731674161.4117627</t>
         </is>
       </c>
-      <c r="E42" t="inlineStr">
+      <c r="G42" t="inlineStr">
         <is>
           <t>./test_images/GMKN1731674161.2269566.png</t>
         </is>
       </c>
-      <c r="F42" t="inlineStr">
+      <c r="H42" t="inlineStr">
         <is>
           <t>./test_images/GMKN1731674161.4117627.png</t>
         </is>
       </c>
-      <c r="G42" t="inlineStr">
+      <c r="I42" t="inlineStr">
         <is>
           <t>long</t>
         </is>
       </c>
-      <c r="H42" t="inlineStr">
-        <is>
-          <t>ST3</t>
-        </is>
-      </c>
-      <c r="I42" t="n">
+      <c r="J42" t="inlineStr">
+        <is>
+          <t>ST3</t>
+        </is>
+      </c>
+      <c r="K42" t="n">
         <v>125.3</v>
       </c>
-      <c r="J42" t="n">
+      <c r="L42" t="n">
         <v>125.78</v>
       </c>
-      <c r="K42" t="n">
+      <c r="M42" t="n">
         <v>0.480000000000004</v>
       </c>
-      <c r="L42" t="n">
+      <c r="N42" t="n">
         <v>0.38</v>
       </c>
     </row>
@@ -2609,51 +2865,57 @@
       <c r="A43" s="1" t="n">
         <v>41</v>
       </c>
-      <c r="B43" t="inlineStr">
+      <c r="B43" t="n">
+        <v>41</v>
+      </c>
+      <c r="C43" t="n">
+        <v>41</v>
+      </c>
+      <c r="D43" t="inlineStr">
         <is>
           <t>GMKN</t>
         </is>
       </c>
-      <c r="C43" t="inlineStr">
+      <c r="E43" t="inlineStr">
         <is>
           <t>1731674161.756117</t>
         </is>
       </c>
-      <c r="D43" t="inlineStr">
+      <c r="F43" t="inlineStr">
         <is>
           <t>1731674163.5095716</t>
         </is>
       </c>
-      <c r="E43" t="inlineStr">
+      <c r="G43" t="inlineStr">
         <is>
           <t>./test_images/GMKN1731674161.756117.png</t>
         </is>
       </c>
-      <c r="F43" t="inlineStr">
+      <c r="H43" t="inlineStr">
         <is>
           <t>./test_images/GMKN1731674163.5095716.png</t>
         </is>
       </c>
-      <c r="G43" t="inlineStr">
+      <c r="I43" t="inlineStr">
         <is>
           <t>long</t>
         </is>
       </c>
-      <c r="H43" t="inlineStr">
-        <is>
-          <t>ST3</t>
-        </is>
-      </c>
-      <c r="I43" t="n">
+      <c r="J43" t="inlineStr">
+        <is>
+          <t>ST3</t>
+        </is>
+      </c>
+      <c r="K43" t="n">
         <v>125.48</v>
       </c>
-      <c r="J43" t="n">
+      <c r="L43" t="n">
         <v>124.92</v>
       </c>
-      <c r="K43" t="n">
+      <c r="M43" t="n">
         <v>-0.5600000000000023</v>
       </c>
-      <c r="L43" t="n">
+      <c r="N43" t="n">
         <v>-0.45</v>
       </c>
     </row>
@@ -2661,51 +2923,57 @@
       <c r="A44" s="1" t="n">
         <v>42</v>
       </c>
-      <c r="B44" t="inlineStr">
+      <c r="B44" t="n">
+        <v>42</v>
+      </c>
+      <c r="C44" t="n">
+        <v>42</v>
+      </c>
+      <c r="D44" t="inlineStr">
         <is>
           <t>GMKN</t>
         </is>
       </c>
-      <c r="C44" t="inlineStr">
+      <c r="E44" t="inlineStr">
         <is>
           <t>1731674167.7580929</t>
         </is>
       </c>
-      <c r="D44" t="inlineStr">
+      <c r="F44" t="inlineStr">
         <is>
           <t>1731674172.0476792</t>
         </is>
       </c>
-      <c r="E44" t="inlineStr">
+      <c r="G44" t="inlineStr">
         <is>
           <t>./test_images/GMKN1731674167.7580929.png</t>
         </is>
       </c>
-      <c r="F44" t="inlineStr">
+      <c r="H44" t="inlineStr">
         <is>
           <t>./test_images/GMKN1731674172.0476792.png</t>
         </is>
       </c>
-      <c r="G44" t="inlineStr">
+      <c r="I44" t="inlineStr">
         <is>
           <t>long</t>
         </is>
       </c>
-      <c r="H44" t="inlineStr">
-        <is>
-          <t>ST3</t>
-        </is>
-      </c>
-      <c r="I44" t="n">
+      <c r="J44" t="inlineStr">
+        <is>
+          <t>ST3</t>
+        </is>
+      </c>
+      <c r="K44" t="n">
         <v>124.94</v>
       </c>
-      <c r="J44" t="n">
+      <c r="L44" t="n">
         <v>125.1</v>
       </c>
-      <c r="K44" t="n">
+      <c r="M44" t="n">
         <v>0.1599999999999966</v>
       </c>
-      <c r="L44" t="n">
+      <c r="N44" t="n">
         <v>0.13</v>
       </c>
     </row>
@@ -2713,51 +2981,57 @@
       <c r="A45" s="1" t="n">
         <v>43</v>
       </c>
-      <c r="B45" t="inlineStr">
+      <c r="B45" t="n">
+        <v>43</v>
+      </c>
+      <c r="C45" t="n">
+        <v>43</v>
+      </c>
+      <c r="D45" t="inlineStr">
         <is>
           <t>GMKN</t>
         </is>
       </c>
-      <c r="C45" t="inlineStr">
+      <c r="E45" t="inlineStr">
         <is>
           <t>1731674176.1711438</t>
         </is>
       </c>
-      <c r="D45" t="inlineStr">
+      <c r="F45" t="inlineStr">
         <is>
           <t>1731674178.082885</t>
         </is>
       </c>
-      <c r="E45" t="inlineStr">
+      <c r="G45" t="inlineStr">
         <is>
           <t>./test_images/GMKN1731674176.1711438.png</t>
         </is>
       </c>
-      <c r="F45" t="inlineStr">
+      <c r="H45" t="inlineStr">
         <is>
           <t>./test_images/GMKN1731674178.082885.png</t>
         </is>
       </c>
-      <c r="G45" t="inlineStr">
+      <c r="I45" t="inlineStr">
         <is>
           <t>short</t>
         </is>
       </c>
-      <c r="H45" t="inlineStr">
-        <is>
-          <t>ST3</t>
-        </is>
-      </c>
-      <c r="I45" t="n">
+      <c r="J45" t="inlineStr">
+        <is>
+          <t>ST3</t>
+        </is>
+      </c>
+      <c r="K45" t="n">
         <v>124.64</v>
       </c>
-      <c r="J45" t="n">
+      <c r="L45" t="n">
         <v>124.36</v>
       </c>
-      <c r="K45" t="n">
+      <c r="M45" t="n">
         <v>0.2800000000000011</v>
       </c>
-      <c r="L45" t="n">
+      <c r="N45" t="n">
         <v>0.22</v>
       </c>
     </row>
@@ -2765,51 +3039,57 @@
       <c r="A46" s="1" t="n">
         <v>44</v>
       </c>
-      <c r="B46" t="inlineStr">
+      <c r="B46" t="n">
+        <v>44</v>
+      </c>
+      <c r="C46" t="n">
+        <v>44</v>
+      </c>
+      <c r="D46" t="inlineStr">
         <is>
           <t>GMKN</t>
         </is>
       </c>
-      <c r="C46" t="inlineStr">
+      <c r="E46" t="inlineStr">
         <is>
           <t>1731674180.355136</t>
         </is>
       </c>
-      <c r="D46" t="inlineStr">
+      <c r="F46" t="inlineStr">
         <is>
           <t>1731674180.4504378</t>
         </is>
       </c>
-      <c r="E46" t="inlineStr">
+      <c r="G46" t="inlineStr">
         <is>
           <t>./test_images/GMKN1731674180.355136.png</t>
         </is>
       </c>
-      <c r="F46" t="inlineStr">
+      <c r="H46" t="inlineStr">
         <is>
           <t>./test_images/GMKN1731674180.4504378.png</t>
         </is>
       </c>
-      <c r="G46" t="inlineStr">
+      <c r="I46" t="inlineStr">
         <is>
           <t>long</t>
         </is>
       </c>
-      <c r="H46" t="inlineStr">
-        <is>
-          <t>ST3</t>
-        </is>
-      </c>
-      <c r="I46" t="n">
+      <c r="J46" t="inlineStr">
+        <is>
+          <t>ST3</t>
+        </is>
+      </c>
+      <c r="K46" t="n">
         <v>125.58</v>
       </c>
-      <c r="J46" t="n">
+      <c r="L46" t="n">
         <v>125.76</v>
       </c>
-      <c r="K46" t="n">
+      <c r="M46" t="n">
         <v>0.1800000000000068</v>
       </c>
-      <c r="L46" t="n">
+      <c r="N46" t="n">
         <v>0.14</v>
       </c>
     </row>
@@ -2817,51 +3097,57 @@
       <c r="A47" s="1" t="n">
         <v>45</v>
       </c>
-      <c r="B47" t="inlineStr">
+      <c r="B47" t="n">
+        <v>45</v>
+      </c>
+      <c r="C47" t="n">
+        <v>45</v>
+      </c>
+      <c r="D47" t="inlineStr">
         <is>
           <t>GMKN</t>
         </is>
       </c>
-      <c r="C47" t="inlineStr">
+      <c r="E47" t="inlineStr">
         <is>
           <t>1731674180.5013084</t>
         </is>
       </c>
-      <c r="D47" t="inlineStr">
+      <c r="F47" t="inlineStr">
         <is>
           <t>1731674181.1230974</t>
         </is>
       </c>
-      <c r="E47" t="inlineStr">
+      <c r="G47" t="inlineStr">
         <is>
           <t>./test_images/GMKN1731674180.5013084.png</t>
         </is>
       </c>
-      <c r="F47" t="inlineStr">
+      <c r="H47" t="inlineStr">
         <is>
           <t>./test_images/GMKN1731674181.1230974.png</t>
         </is>
       </c>
-      <c r="G47" t="inlineStr">
+      <c r="I47" t="inlineStr">
         <is>
           <t>long</t>
         </is>
       </c>
-      <c r="H47" t="inlineStr">
-        <is>
-          <t>ST3</t>
-        </is>
-      </c>
-      <c r="I47" t="n">
+      <c r="J47" t="inlineStr">
+        <is>
+          <t>ST3</t>
+        </is>
+      </c>
+      <c r="K47" t="n">
         <v>125.5</v>
       </c>
-      <c r="J47" t="n">
+      <c r="L47" t="n">
         <v>125.36</v>
       </c>
-      <c r="K47" t="n">
+      <c r="M47" t="n">
         <v>-0.1400000000000006</v>
       </c>
-      <c r="L47" t="n">
+      <c r="N47" t="n">
         <v>-0.11</v>
       </c>
     </row>
@@ -2869,51 +3155,57 @@
       <c r="A48" s="1" t="n">
         <v>46</v>
       </c>
-      <c r="B48" t="inlineStr">
+      <c r="B48" t="n">
+        <v>46</v>
+      </c>
+      <c r="C48" t="n">
+        <v>46</v>
+      </c>
+      <c r="D48" t="inlineStr">
         <is>
           <t>NLMK</t>
         </is>
       </c>
-      <c r="C48" t="inlineStr">
+      <c r="E48" t="inlineStr">
         <is>
           <t>1731674188.8442364</t>
         </is>
       </c>
-      <c r="D48" t="inlineStr">
+      <c r="F48" t="inlineStr">
         <is>
           <t>1731674189.8897116</t>
         </is>
       </c>
-      <c r="E48" t="inlineStr">
+      <c r="G48" t="inlineStr">
         <is>
           <t>./test_images/NLMK1731674188.8442364.png</t>
         </is>
       </c>
-      <c r="F48" t="inlineStr">
+      <c r="H48" t="inlineStr">
         <is>
           <t>./test_images/NLMK1731674189.8897116.png</t>
         </is>
       </c>
-      <c r="G48" t="inlineStr">
+      <c r="I48" t="inlineStr">
         <is>
           <t>long</t>
         </is>
       </c>
-      <c r="H48" t="inlineStr">
-        <is>
-          <t>ST3</t>
-        </is>
-      </c>
-      <c r="I48" t="n">
+      <c r="J48" t="inlineStr">
+        <is>
+          <t>ST3</t>
+        </is>
+      </c>
+      <c r="K48" t="n">
         <v>161.38</v>
       </c>
-      <c r="J48" t="n">
+      <c r="L48" t="n">
         <v>162.5</v>
       </c>
-      <c r="K48" t="n">
+      <c r="M48" t="n">
         <v>1.120000000000005</v>
       </c>
-      <c r="L48" t="n">
+      <c r="N48" t="n">
         <v>0.6899999999999999</v>
       </c>
     </row>
@@ -2921,51 +3213,57 @@
       <c r="A49" s="1" t="n">
         <v>47</v>
       </c>
-      <c r="B49" t="inlineStr">
+      <c r="B49" t="n">
+        <v>47</v>
+      </c>
+      <c r="C49" t="n">
+        <v>47</v>
+      </c>
+      <c r="D49" t="inlineStr">
         <is>
           <t>NLMK</t>
         </is>
       </c>
-      <c r="C49" t="inlineStr">
+      <c r="E49" t="inlineStr">
         <is>
           <t>1731674190.6908681</t>
         </is>
       </c>
-      <c r="D49" t="inlineStr">
+      <c r="F49" t="inlineStr">
         <is>
           <t>1731674191.6927028</t>
         </is>
       </c>
-      <c r="E49" t="inlineStr">
+      <c r="G49" t="inlineStr">
         <is>
           <t>./test_images/NLMK1731674190.6908681.png</t>
         </is>
       </c>
-      <c r="F49" t="inlineStr">
+      <c r="H49" t="inlineStr">
         <is>
           <t>./test_images/NLMK1731674191.6927028.png</t>
         </is>
       </c>
-      <c r="G49" t="inlineStr">
+      <c r="I49" t="inlineStr">
         <is>
           <t>long</t>
         </is>
       </c>
-      <c r="H49" t="inlineStr">
-        <is>
-          <t>ST3</t>
-        </is>
-      </c>
-      <c r="I49" t="n">
+      <c r="J49" t="inlineStr">
+        <is>
+          <t>ST3</t>
+        </is>
+      </c>
+      <c r="K49" t="n">
         <v>162.34</v>
       </c>
-      <c r="J49" t="n">
+      <c r="L49" t="n">
         <v>161.6</v>
       </c>
-      <c r="K49" t="n">
+      <c r="M49" t="n">
         <v>-0.7400000000000091</v>
       </c>
-      <c r="L49" t="n">
+      <c r="N49" t="n">
         <v>-0.46</v>
       </c>
     </row>
@@ -2973,51 +3271,57 @@
       <c r="A50" s="1" t="n">
         <v>48</v>
       </c>
-      <c r="B50" t="inlineStr">
+      <c r="B50" t="n">
+        <v>48</v>
+      </c>
+      <c r="C50" t="n">
+        <v>48</v>
+      </c>
+      <c r="D50" t="inlineStr">
         <is>
           <t>NLMK</t>
         </is>
       </c>
-      <c r="C50" t="inlineStr">
+      <c r="E50" t="inlineStr">
         <is>
           <t>1731674203.7179904</t>
         </is>
       </c>
-      <c r="D50" t="inlineStr">
+      <c r="F50" t="inlineStr">
         <is>
           <t>1731674204.9595666</t>
         </is>
       </c>
-      <c r="E50" t="inlineStr">
+      <c r="G50" t="inlineStr">
         <is>
           <t>./test_images/NLMK1731674203.7179904.png</t>
         </is>
       </c>
-      <c r="F50" t="inlineStr">
+      <c r="H50" t="inlineStr">
         <is>
           <t>./test_images/NLMK1731674204.9595666.png</t>
         </is>
       </c>
-      <c r="G50" t="inlineStr">
+      <c r="I50" t="inlineStr">
         <is>
           <t>short</t>
         </is>
       </c>
-      <c r="H50" t="inlineStr">
-        <is>
-          <t>ST3</t>
-        </is>
-      </c>
-      <c r="I50" t="n">
+      <c r="J50" t="inlineStr">
+        <is>
+          <t>ST3</t>
+        </is>
+      </c>
+      <c r="K50" t="n">
         <v>159.4</v>
       </c>
-      <c r="J50" t="n">
+      <c r="L50" t="n">
         <v>159.14</v>
       </c>
-      <c r="K50" t="n">
+      <c r="M50" t="n">
         <v>0.2600000000000193</v>
       </c>
-      <c r="L50" t="n">
+      <c r="N50" t="n">
         <v>0.16</v>
       </c>
     </row>
@@ -3025,51 +3329,57 @@
       <c r="A51" s="1" t="n">
         <v>49</v>
       </c>
-      <c r="B51" t="inlineStr">
+      <c r="B51" t="n">
+        <v>49</v>
+      </c>
+      <c r="C51" t="n">
+        <v>49</v>
+      </c>
+      <c r="D51" t="inlineStr">
         <is>
           <t>NLMK</t>
         </is>
       </c>
-      <c r="C51" t="inlineStr">
+      <c r="E51" t="inlineStr">
         <is>
           <t>1731674205.9528089</t>
         </is>
       </c>
-      <c r="D51" t="inlineStr">
+      <c r="F51" t="inlineStr">
         <is>
           <t>1731674208.693606</t>
         </is>
       </c>
-      <c r="E51" t="inlineStr">
+      <c r="G51" t="inlineStr">
         <is>
           <t>./test_images/NLMK1731674205.9528089.png</t>
         </is>
       </c>
-      <c r="F51" t="inlineStr">
+      <c r="H51" t="inlineStr">
         <is>
           <t>./test_images/NLMK1731674208.693606.png</t>
         </is>
       </c>
-      <c r="G51" t="inlineStr">
+      <c r="I51" t="inlineStr">
         <is>
           <t>short</t>
         </is>
       </c>
-      <c r="H51" t="inlineStr">
-        <is>
-          <t>ST3</t>
-        </is>
-      </c>
-      <c r="I51" t="n">
+      <c r="J51" t="inlineStr">
+        <is>
+          <t>ST3</t>
+        </is>
+      </c>
+      <c r="K51" t="n">
         <v>159.06</v>
       </c>
-      <c r="J51" t="n">
+      <c r="L51" t="n">
         <v>159.28</v>
       </c>
-      <c r="K51" t="n">
+      <c r="M51" t="n">
         <v>-0.2199999999999989</v>
       </c>
-      <c r="L51" t="n">
+      <c r="N51" t="n">
         <v>-0.14</v>
       </c>
     </row>
@@ -3077,51 +3387,57 @@
       <c r="A52" s="1" t="n">
         <v>50</v>
       </c>
-      <c r="B52" t="inlineStr">
+      <c r="B52" t="n">
+        <v>50</v>
+      </c>
+      <c r="C52" t="n">
+        <v>50</v>
+      </c>
+      <c r="D52" t="inlineStr">
         <is>
           <t>NLMK</t>
         </is>
       </c>
-      <c r="C52" t="inlineStr">
+      <c r="E52" t="inlineStr">
         <is>
           <t>1731674210.6820374</t>
         </is>
       </c>
-      <c r="D52" t="inlineStr">
+      <c r="F52" t="inlineStr">
         <is>
           <t>1731674211.819548</t>
         </is>
       </c>
-      <c r="E52" t="inlineStr">
+      <c r="G52" t="inlineStr">
         <is>
           <t>./test_images/NLMK1731674210.6820374.png</t>
         </is>
       </c>
-      <c r="F52" t="inlineStr">
+      <c r="H52" t="inlineStr">
         <is>
           <t>./test_images/NLMK1731674211.819548.png</t>
         </is>
       </c>
-      <c r="G52" t="inlineStr">
+      <c r="I52" t="inlineStr">
         <is>
           <t>short</t>
         </is>
       </c>
-      <c r="H52" t="inlineStr">
-        <is>
-          <t>ST3</t>
-        </is>
-      </c>
-      <c r="I52" t="n">
+      <c r="J52" t="inlineStr">
+        <is>
+          <t>ST3</t>
+        </is>
+      </c>
+      <c r="K52" t="n">
         <v>159.06</v>
       </c>
-      <c r="J52" t="n">
+      <c r="L52" t="n">
         <v>159.12</v>
       </c>
-      <c r="K52" t="n">
+      <c r="M52" t="n">
         <v>-0.06000000000000227</v>
       </c>
-      <c r="L52" t="n">
+      <c r="N52" t="n">
         <v>-0.04</v>
       </c>
     </row>
@@ -3129,51 +3445,57 @@
       <c r="A53" s="1" t="n">
         <v>51</v>
       </c>
-      <c r="B53" t="inlineStr">
+      <c r="B53" t="n">
+        <v>51</v>
+      </c>
+      <c r="C53" t="n">
+        <v>51</v>
+      </c>
+      <c r="D53" t="inlineStr">
         <is>
           <t>NLMK</t>
         </is>
       </c>
-      <c r="C53" t="inlineStr">
+      <c r="E53" t="inlineStr">
         <is>
           <t>1731674212.245202</t>
         </is>
       </c>
-      <c r="D53" t="inlineStr">
+      <c r="F53" t="inlineStr">
         <is>
           <t>1731674213.122182</t>
         </is>
       </c>
-      <c r="E53" t="inlineStr">
+      <c r="G53" t="inlineStr">
         <is>
           <t>./test_images/NLMK1731674212.245202.png</t>
         </is>
       </c>
-      <c r="F53" t="inlineStr">
+      <c r="H53" t="inlineStr">
         <is>
           <t>./test_images/NLMK1731674213.122182.png</t>
         </is>
       </c>
-      <c r="G53" t="inlineStr">
+      <c r="I53" t="inlineStr">
         <is>
           <t>long</t>
         </is>
       </c>
-      <c r="H53" t="inlineStr">
-        <is>
-          <t>ST3</t>
-        </is>
-      </c>
-      <c r="I53" t="n">
+      <c r="J53" t="inlineStr">
+        <is>
+          <t>ST3</t>
+        </is>
+      </c>
+      <c r="K53" t="n">
         <v>159.4</v>
       </c>
-      <c r="J53" t="n">
+      <c r="L53" t="n">
         <v>159.64</v>
       </c>
-      <c r="K53" t="n">
+      <c r="M53" t="n">
         <v>0.2399999999999807</v>
       </c>
-      <c r="L53" t="n">
+      <c r="N53" t="n">
         <v>0.15</v>
       </c>
     </row>
@@ -3181,51 +3503,57 @@
       <c r="A54" s="1" t="n">
         <v>52</v>
       </c>
-      <c r="B54" t="inlineStr">
+      <c r="B54" t="n">
+        <v>52</v>
+      </c>
+      <c r="C54" t="n">
+        <v>52</v>
+      </c>
+      <c r="D54" t="inlineStr">
         <is>
           <t>NLMK</t>
         </is>
       </c>
-      <c r="C54" t="inlineStr">
+      <c r="E54" t="inlineStr">
         <is>
           <t>1731674213.5830977</t>
         </is>
       </c>
-      <c r="D54" t="inlineStr">
+      <c r="F54" t="inlineStr">
         <is>
           <t>1731674214.9990625</t>
         </is>
       </c>
-      <c r="E54" t="inlineStr">
+      <c r="G54" t="inlineStr">
         <is>
           <t>./test_images/NLMK1731674213.5830977.png</t>
         </is>
       </c>
-      <c r="F54" t="inlineStr">
+      <c r="H54" t="inlineStr">
         <is>
           <t>./test_images/NLMK1731674214.9990625.png</t>
         </is>
       </c>
-      <c r="G54" t="inlineStr">
+      <c r="I54" t="inlineStr">
         <is>
           <t>long</t>
         </is>
       </c>
-      <c r="H54" t="inlineStr">
-        <is>
-          <t>ST3</t>
-        </is>
-      </c>
-      <c r="I54" t="n">
+      <c r="J54" t="inlineStr">
+        <is>
+          <t>ST3</t>
+        </is>
+      </c>
+      <c r="K54" t="n">
         <v>159.6</v>
       </c>
-      <c r="J54" t="n">
+      <c r="L54" t="n">
         <v>159.8</v>
       </c>
-      <c r="K54" t="n">
+      <c r="M54" t="n">
         <v>0.2000000000000171</v>
       </c>
-      <c r="L54" t="n">
+      <c r="N54" t="n">
         <v>0.13</v>
       </c>
     </row>
@@ -3233,51 +3561,57 @@
       <c r="A55" s="1" t="n">
         <v>53</v>
       </c>
-      <c r="B55" t="inlineStr">
+      <c r="B55" t="n">
+        <v>53</v>
+      </c>
+      <c r="C55" t="n">
+        <v>53</v>
+      </c>
+      <c r="D55" t="inlineStr">
         <is>
           <t>MAGN</t>
         </is>
       </c>
-      <c r="C55" t="inlineStr">
+      <c r="E55" t="inlineStr">
         <is>
           <t>1731674218.462213</t>
         </is>
       </c>
-      <c r="D55" t="inlineStr">
+      <c r="F55" t="inlineStr">
         <is>
           <t>1731674218.776313</t>
         </is>
       </c>
-      <c r="E55" t="inlineStr">
+      <c r="G55" t="inlineStr">
         <is>
           <t>./test_images/MAGN1731674218.462213.png</t>
         </is>
       </c>
-      <c r="F55" t="inlineStr">
+      <c r="H55" t="inlineStr">
         <is>
           <t>./test_images/MAGN1731674218.776313.png</t>
         </is>
       </c>
-      <c r="G55" t="inlineStr">
+      <c r="I55" t="inlineStr">
         <is>
           <t>long</t>
         </is>
       </c>
-      <c r="H55" t="inlineStr">
-        <is>
-          <t>ST3</t>
-        </is>
-      </c>
-      <c r="I55" t="n">
+      <c r="J55" t="inlineStr">
+        <is>
+          <t>ST3</t>
+        </is>
+      </c>
+      <c r="K55" t="n">
         <v>49.11</v>
       </c>
-      <c r="J55" t="n">
+      <c r="L55" t="n">
         <v>48.915</v>
       </c>
-      <c r="K55" t="n">
+      <c r="M55" t="n">
         <v>-0.1950000000000003</v>
       </c>
-      <c r="L55" t="n">
+      <c r="N55" t="n">
         <v>-0.4</v>
       </c>
     </row>
@@ -3285,51 +3619,57 @@
       <c r="A56" s="1" t="n">
         <v>54</v>
       </c>
-      <c r="B56" t="inlineStr">
+      <c r="B56" t="n">
+        <v>54</v>
+      </c>
+      <c r="C56" t="n">
+        <v>54</v>
+      </c>
+      <c r="D56" t="inlineStr">
         <is>
           <t>MAGN</t>
         </is>
       </c>
-      <c r="C56" t="inlineStr">
+      <c r="E56" t="inlineStr">
         <is>
           <t>1731674223.041616</t>
         </is>
       </c>
-      <c r="D56" t="inlineStr">
+      <c r="F56" t="inlineStr">
         <is>
           <t>1731674224.420358</t>
         </is>
       </c>
-      <c r="E56" t="inlineStr">
+      <c r="G56" t="inlineStr">
         <is>
           <t>./test_images/MAGN1731674223.041616.png</t>
         </is>
       </c>
-      <c r="F56" t="inlineStr">
+      <c r="H56" t="inlineStr">
         <is>
           <t>./test_images/MAGN1731674224.420358.png</t>
         </is>
       </c>
-      <c r="G56" t="inlineStr">
+      <c r="I56" t="inlineStr">
         <is>
           <t>short</t>
         </is>
       </c>
-      <c r="H56" t="inlineStr">
-        <is>
-          <t>ST3</t>
-        </is>
-      </c>
-      <c r="I56" t="n">
+      <c r="J56" t="inlineStr">
+        <is>
+          <t>ST3</t>
+        </is>
+      </c>
+      <c r="K56" t="n">
         <v>48.8</v>
       </c>
-      <c r="J56" t="n">
+      <c r="L56" t="n">
         <v>48.785</v>
       </c>
-      <c r="K56" t="n">
+      <c r="M56" t="n">
         <v>0.01500000000000057</v>
       </c>
-      <c r="L56" t="n">
+      <c r="N56" t="n">
         <v>0.03</v>
       </c>
     </row>
@@ -3337,51 +3677,57 @@
       <c r="A57" s="1" t="n">
         <v>55</v>
       </c>
-      <c r="B57" t="inlineStr">
+      <c r="B57" t="n">
+        <v>55</v>
+      </c>
+      <c r="C57" t="n">
+        <v>55</v>
+      </c>
+      <c r="D57" t="inlineStr">
         <is>
           <t>MAGN</t>
         </is>
       </c>
-      <c r="C57" t="inlineStr">
+      <c r="E57" t="inlineStr">
         <is>
           <t>1731674227.0822632</t>
         </is>
       </c>
-      <c r="D57" t="inlineStr">
+      <c r="F57" t="inlineStr">
         <is>
           <t>1731674229.7123408</t>
         </is>
       </c>
-      <c r="E57" t="inlineStr">
+      <c r="G57" t="inlineStr">
         <is>
           <t>./test_images/MAGN1731674227.0822632.png</t>
         </is>
       </c>
-      <c r="F57" t="inlineStr">
+      <c r="H57" t="inlineStr">
         <is>
           <t>./test_images/MAGN1731674229.7123408.png</t>
         </is>
       </c>
-      <c r="G57" t="inlineStr">
+      <c r="I57" t="inlineStr">
         <is>
           <t>long</t>
         </is>
       </c>
-      <c r="H57" t="inlineStr">
-        <is>
-          <t>ST3</t>
-        </is>
-      </c>
-      <c r="I57" t="n">
+      <c r="J57" t="inlineStr">
+        <is>
+          <t>ST3</t>
+        </is>
+      </c>
+      <c r="K57" t="n">
         <v>48.98</v>
       </c>
-      <c r="J57" t="n">
+      <c r="L57" t="n">
         <v>49.115</v>
       </c>
-      <c r="K57" t="n">
+      <c r="M57" t="n">
         <v>0.1350000000000051</v>
       </c>
-      <c r="L57" t="n">
+      <c r="N57" t="n">
         <v>0.28</v>
       </c>
     </row>
@@ -3389,51 +3735,57 @@
       <c r="A58" s="1" t="n">
         <v>56</v>
       </c>
-      <c r="B58" t="inlineStr">
+      <c r="B58" t="n">
+        <v>56</v>
+      </c>
+      <c r="C58" t="n">
+        <v>56</v>
+      </c>
+      <c r="D58" t="inlineStr">
         <is>
           <t>MAGN</t>
         </is>
       </c>
-      <c r="C58" t="inlineStr">
+      <c r="E58" t="inlineStr">
         <is>
           <t>1731674230.6323845</t>
         </is>
       </c>
-      <c r="D58" t="inlineStr">
+      <c r="F58" t="inlineStr">
         <is>
           <t>1731674232.8507135</t>
         </is>
       </c>
-      <c r="E58" t="inlineStr">
+      <c r="G58" t="inlineStr">
         <is>
           <t>./test_images/MAGN1731674230.6323845.png</t>
         </is>
       </c>
-      <c r="F58" t="inlineStr">
+      <c r="H58" t="inlineStr">
         <is>
           <t>./test_images/MAGN1731674232.8507135.png</t>
         </is>
       </c>
-      <c r="G58" t="inlineStr">
+      <c r="I58" t="inlineStr">
         <is>
           <t>long</t>
         </is>
       </c>
-      <c r="H58" t="inlineStr">
-        <is>
-          <t>ST3</t>
-        </is>
-      </c>
-      <c r="I58" t="n">
+      <c r="J58" t="inlineStr">
+        <is>
+          <t>ST3</t>
+        </is>
+      </c>
+      <c r="K58" t="n">
         <v>49.11</v>
       </c>
-      <c r="J58" t="n">
+      <c r="L58" t="n">
         <v>48.83</v>
       </c>
-      <c r="K58" t="n">
+      <c r="M58" t="n">
         <v>-0.2800000000000011</v>
       </c>
-      <c r="L58" t="n">
+      <c r="N58" t="n">
         <v>-0.5700000000000001</v>
       </c>
     </row>
@@ -3441,51 +3793,57 @@
       <c r="A59" s="1" t="n">
         <v>57</v>
       </c>
-      <c r="B59" t="inlineStr">
+      <c r="B59" t="n">
+        <v>57</v>
+      </c>
+      <c r="C59" t="n">
+        <v>57</v>
+      </c>
+      <c r="D59" t="inlineStr">
         <is>
           <t>MAGN</t>
         </is>
       </c>
-      <c r="C59" t="inlineStr">
+      <c r="E59" t="inlineStr">
         <is>
           <t>1731674233.8983</t>
         </is>
       </c>
-      <c r="D59" t="inlineStr">
+      <c r="F59" t="inlineStr">
         <is>
           <t>1731674234.7775738</t>
         </is>
       </c>
-      <c r="E59" t="inlineStr">
+      <c r="G59" t="inlineStr">
         <is>
           <t>./test_images/MAGN1731674233.8983.png</t>
         </is>
       </c>
-      <c r="F59" t="inlineStr">
+      <c r="H59" t="inlineStr">
         <is>
           <t>./test_images/MAGN1731674234.7775738.png</t>
         </is>
       </c>
-      <c r="G59" t="inlineStr">
+      <c r="I59" t="inlineStr">
         <is>
           <t>short</t>
         </is>
       </c>
-      <c r="H59" t="inlineStr">
-        <is>
-          <t>ST3</t>
-        </is>
-      </c>
-      <c r="I59" t="n">
+      <c r="J59" t="inlineStr">
+        <is>
+          <t>ST3</t>
+        </is>
+      </c>
+      <c r="K59" t="n">
         <v>48.86</v>
       </c>
-      <c r="J59" t="n">
+      <c r="L59" t="n">
         <v>48.84</v>
       </c>
-      <c r="K59" t="n">
+      <c r="M59" t="n">
         <v>0.01999999999999602</v>
       </c>
-      <c r="L59" t="n">
+      <c r="N59" t="n">
         <v>0.04</v>
       </c>
     </row>
@@ -3493,51 +3851,57 @@
       <c r="A60" s="1" t="n">
         <v>58</v>
       </c>
-      <c r="B60" t="inlineStr">
+      <c r="B60" t="n">
+        <v>58</v>
+      </c>
+      <c r="C60" t="n">
+        <v>58</v>
+      </c>
+      <c r="D60" t="inlineStr">
         <is>
           <t>MAGN</t>
         </is>
       </c>
-      <c r="C60" t="inlineStr">
+      <c r="E60" t="inlineStr">
         <is>
           <t>1731674236.846963</t>
         </is>
       </c>
-      <c r="D60" t="inlineStr">
+      <c r="F60" t="inlineStr">
         <is>
           <t>1731674237.6589596</t>
         </is>
       </c>
-      <c r="E60" t="inlineStr">
+      <c r="G60" t="inlineStr">
         <is>
           <t>./test_images/MAGN1731674236.846963.png</t>
         </is>
       </c>
-      <c r="F60" t="inlineStr">
+      <c r="H60" t="inlineStr">
         <is>
           <t>./test_images/MAGN1731674237.6589596.png</t>
         </is>
       </c>
-      <c r="G60" t="inlineStr">
+      <c r="I60" t="inlineStr">
         <is>
           <t>short</t>
         </is>
       </c>
-      <c r="H60" t="inlineStr">
-        <is>
-          <t>ST3</t>
-        </is>
-      </c>
-      <c r="I60" t="n">
+      <c r="J60" t="inlineStr">
+        <is>
+          <t>ST3</t>
+        </is>
+      </c>
+      <c r="K60" t="n">
         <v>48.77</v>
       </c>
-      <c r="J60" t="n">
+      <c r="L60" t="n">
         <v>48.655</v>
       </c>
-      <c r="K60" t="n">
+      <c r="M60" t="n">
         <v>0.115000000000002</v>
       </c>
-      <c r="L60" t="n">
+      <c r="N60" t="n">
         <v>0.24</v>
       </c>
     </row>
@@ -3545,51 +3909,57 @@
       <c r="A61" s="1" t="n">
         <v>59</v>
       </c>
-      <c r="B61" t="inlineStr">
+      <c r="B61" t="n">
+        <v>59</v>
+      </c>
+      <c r="C61" t="n">
+        <v>59</v>
+      </c>
+      <c r="D61" t="inlineStr">
         <is>
           <t>MAGN</t>
         </is>
       </c>
-      <c r="C61" t="inlineStr">
+      <c r="E61" t="inlineStr">
         <is>
           <t>1731674242.1399224</t>
         </is>
       </c>
-      <c r="D61" t="inlineStr">
+      <c r="F61" t="inlineStr">
         <is>
           <t>1731674244.979754</t>
         </is>
       </c>
-      <c r="E61" t="inlineStr">
+      <c r="G61" t="inlineStr">
         <is>
           <t>./test_images/MAGN1731674242.1399224.png</t>
         </is>
       </c>
-      <c r="F61" t="inlineStr">
+      <c r="H61" t="inlineStr">
         <is>
           <t>./test_images/MAGN1731674244.979754.png</t>
         </is>
       </c>
-      <c r="G61" t="inlineStr">
+      <c r="I61" t="inlineStr">
         <is>
           <t>long</t>
         </is>
       </c>
-      <c r="H61" t="inlineStr">
-        <is>
-          <t>ST3</t>
-        </is>
-      </c>
-      <c r="I61" t="n">
+      <c r="J61" t="inlineStr">
+        <is>
+          <t>ST3</t>
+        </is>
+      </c>
+      <c r="K61" t="n">
         <v>48.905</v>
       </c>
-      <c r="J61" t="n">
+      <c r="L61" t="n">
         <v>48.965</v>
       </c>
-      <c r="K61" t="n">
+      <c r="M61" t="n">
         <v>0.06000000000000227</v>
       </c>
-      <c r="L61" t="n">
+      <c r="N61" t="n">
         <v>0.12</v>
       </c>
     </row>
@@ -3597,51 +3967,57 @@
       <c r="A62" s="1" t="n">
         <v>60</v>
       </c>
-      <c r="B62" t="inlineStr">
+      <c r="B62" t="n">
+        <v>60</v>
+      </c>
+      <c r="C62" t="n">
+        <v>60</v>
+      </c>
+      <c r="D62" t="inlineStr">
         <is>
           <t>MAGN</t>
         </is>
       </c>
-      <c r="C62" t="inlineStr">
+      <c r="E62" t="inlineStr">
         <is>
           <t>1731674245.618869</t>
         </is>
       </c>
-      <c r="D62" t="inlineStr">
+      <c r="F62" t="inlineStr">
         <is>
           <t>1731674247.3645592</t>
         </is>
       </c>
-      <c r="E62" t="inlineStr">
+      <c r="G62" t="inlineStr">
         <is>
           <t>./test_images/MAGN1731674245.618869.png</t>
         </is>
       </c>
-      <c r="F62" t="inlineStr">
+      <c r="H62" t="inlineStr">
         <is>
           <t>./test_images/MAGN1731674247.3645592.png</t>
         </is>
       </c>
-      <c r="G62" t="inlineStr">
+      <c r="I62" t="inlineStr">
         <is>
           <t>long</t>
         </is>
       </c>
-      <c r="H62" t="inlineStr">
-        <is>
-          <t>ST3</t>
-        </is>
-      </c>
-      <c r="I62" t="n">
+      <c r="J62" t="inlineStr">
+        <is>
+          <t>ST3</t>
+        </is>
+      </c>
+      <c r="K62" t="n">
         <v>48.965</v>
       </c>
-      <c r="J62" t="n">
+      <c r="L62" t="n">
         <v>48.99</v>
       </c>
-      <c r="K62" t="n">
+      <c r="M62" t="n">
         <v>0.02499999999999858</v>
       </c>
-      <c r="L62" t="n">
+      <c r="N62" t="n">
         <v>0.05</v>
       </c>
     </row>
@@ -3649,51 +4025,57 @@
       <c r="A63" s="1" t="n">
         <v>61</v>
       </c>
-      <c r="B63" t="inlineStr">
+      <c r="B63" t="n">
+        <v>61</v>
+      </c>
+      <c r="C63" t="n">
+        <v>61</v>
+      </c>
+      <c r="D63" t="inlineStr">
         <is>
           <t>CHMF</t>
         </is>
       </c>
-      <c r="C63" t="inlineStr">
+      <c r="E63" t="inlineStr">
         <is>
           <t>1731674250.0859869</t>
         </is>
       </c>
-      <c r="D63" t="inlineStr">
+      <c r="F63" t="inlineStr">
         <is>
           <t>1731674252.5597587</t>
         </is>
       </c>
-      <c r="E63" t="inlineStr">
+      <c r="G63" t="inlineStr">
         <is>
           <t>./test_images/CHMF1731674250.0859869.png</t>
         </is>
       </c>
-      <c r="F63" t="inlineStr">
+      <c r="H63" t="inlineStr">
         <is>
           <t>./test_images/CHMF1731674252.5597587.png</t>
         </is>
       </c>
-      <c r="G63" t="inlineStr">
+      <c r="I63" t="inlineStr">
         <is>
           <t>long</t>
         </is>
       </c>
-      <c r="H63" t="inlineStr">
-        <is>
-          <t>ST3</t>
-        </is>
-      </c>
-      <c r="I63" t="n">
+      <c r="J63" t="inlineStr">
+        <is>
+          <t>ST3</t>
+        </is>
+      </c>
+      <c r="K63" t="n">
         <v>1394.4</v>
       </c>
-      <c r="J63" t="n">
+      <c r="L63" t="n">
         <v>1386.2</v>
       </c>
-      <c r="K63" t="n">
+      <c r="M63" t="n">
         <v>-8.200000000000045</v>
       </c>
-      <c r="L63" t="n">
+      <c r="N63" t="n">
         <v>-0.59</v>
       </c>
     </row>
@@ -3701,51 +4083,57 @@
       <c r="A64" s="1" t="n">
         <v>62</v>
       </c>
-      <c r="B64" t="inlineStr">
+      <c r="B64" t="n">
+        <v>62</v>
+      </c>
+      <c r="C64" t="n">
+        <v>62</v>
+      </c>
+      <c r="D64" t="inlineStr">
         <is>
           <t>CHMF</t>
         </is>
       </c>
-      <c r="C64" t="inlineStr">
+      <c r="E64" t="inlineStr">
         <is>
           <t>1731674262.590128</t>
         </is>
       </c>
-      <c r="D64" t="inlineStr">
+      <c r="F64" t="inlineStr">
         <is>
           <t>1731674263.7762957</t>
         </is>
       </c>
-      <c r="E64" t="inlineStr">
+      <c r="G64" t="inlineStr">
         <is>
           <t>./test_images/CHMF1731674262.590128.png</t>
         </is>
       </c>
-      <c r="F64" t="inlineStr">
+      <c r="H64" t="inlineStr">
         <is>
           <t>./test_images/CHMF1731674263.7762957.png</t>
         </is>
       </c>
-      <c r="G64" t="inlineStr">
+      <c r="I64" t="inlineStr">
         <is>
           <t>short</t>
         </is>
       </c>
-      <c r="H64" t="inlineStr">
-        <is>
-          <t>ST3</t>
-        </is>
-      </c>
-      <c r="I64" t="n">
+      <c r="J64" t="inlineStr">
+        <is>
+          <t>ST3</t>
+        </is>
+      </c>
+      <c r="K64" t="n">
         <v>1371.2</v>
       </c>
-      <c r="J64" t="n">
+      <c r="L64" t="n">
         <v>1368</v>
       </c>
-      <c r="K64" t="n">
+      <c r="M64" t="n">
         <v>3.200000000000045</v>
       </c>
-      <c r="L64" t="n">
+      <c r="N64" t="n">
         <v>0.23</v>
       </c>
     </row>
@@ -3753,51 +4141,57 @@
       <c r="A65" s="1" t="n">
         <v>63</v>
       </c>
-      <c r="B65" t="inlineStr">
+      <c r="B65" t="n">
+        <v>63</v>
+      </c>
+      <c r="C65" t="n">
+        <v>63</v>
+      </c>
+      <c r="D65" t="inlineStr">
         <is>
           <t>CHMF</t>
         </is>
       </c>
-      <c r="C65" t="inlineStr">
+      <c r="E65" t="inlineStr">
         <is>
           <t>1731674270.466908</t>
         </is>
       </c>
-      <c r="D65" t="inlineStr">
+      <c r="F65" t="inlineStr">
         <is>
           <t>1731674271.281098</t>
         </is>
       </c>
-      <c r="E65" t="inlineStr">
+      <c r="G65" t="inlineStr">
         <is>
           <t>./test_images/CHMF1731674270.466908.png</t>
         </is>
       </c>
-      <c r="F65" t="inlineStr">
+      <c r="H65" t="inlineStr">
         <is>
           <t>./test_images/CHMF1731674271.281098.png</t>
         </is>
       </c>
-      <c r="G65" t="inlineStr">
+      <c r="I65" t="inlineStr">
         <is>
           <t>long</t>
         </is>
       </c>
-      <c r="H65" t="inlineStr">
-        <is>
-          <t>ST3</t>
-        </is>
-      </c>
-      <c r="I65" t="n">
+      <c r="J65" t="inlineStr">
+        <is>
+          <t>ST3</t>
+        </is>
+      </c>
+      <c r="K65" t="n">
         <v>1367.6</v>
       </c>
-      <c r="J65" t="n">
+      <c r="L65" t="n">
         <v>1368.8</v>
       </c>
-      <c r="K65" t="n">
+      <c r="M65" t="n">
         <v>1.200000000000045</v>
       </c>
-      <c r="L65" t="n">
+      <c r="N65" t="n">
         <v>0.09</v>
       </c>
     </row>
@@ -3805,51 +4199,57 @@
       <c r="A66" s="1" t="n">
         <v>64</v>
       </c>
-      <c r="B66" t="inlineStr">
+      <c r="B66" t="n">
+        <v>64</v>
+      </c>
+      <c r="C66" t="n">
+        <v>64</v>
+      </c>
+      <c r="D66" t="inlineStr">
         <is>
           <t>ALRS</t>
         </is>
       </c>
-      <c r="C66" t="inlineStr">
+      <c r="E66" t="inlineStr">
         <is>
           <t>1731674276.5487602</t>
         </is>
       </c>
-      <c r="D66" t="inlineStr">
+      <c r="F66" t="inlineStr">
         <is>
           <t>1731674277.199416</t>
         </is>
       </c>
-      <c r="E66" t="inlineStr">
+      <c r="G66" t="inlineStr">
         <is>
           <t>./test_images/ALRS1731674276.5487602.png</t>
         </is>
       </c>
-      <c r="F66" t="inlineStr">
+      <c r="H66" t="inlineStr">
         <is>
           <t>./test_images/ALRS1731674277.199416.png</t>
         </is>
       </c>
-      <c r="G66" t="inlineStr">
+      <c r="I66" t="inlineStr">
         <is>
           <t>long</t>
         </is>
       </c>
-      <c r="H66" t="inlineStr">
-        <is>
-          <t>ST3</t>
-        </is>
-      </c>
-      <c r="I66" t="n">
+      <c r="J66" t="inlineStr">
+        <is>
+          <t>ST3</t>
+        </is>
+      </c>
+      <c r="K66" t="n">
         <v>60.08</v>
       </c>
-      <c r="J66" t="n">
+      <c r="L66" t="n">
         <v>59.87</v>
       </c>
-      <c r="K66" t="n">
+      <c r="M66" t="n">
         <v>-0.2100000000000009</v>
       </c>
-      <c r="L66" t="n">
+      <c r="N66" t="n">
         <v>-0.35</v>
       </c>
     </row>
@@ -3857,51 +4257,57 @@
       <c r="A67" s="1" t="n">
         <v>65</v>
       </c>
-      <c r="B67" t="inlineStr">
+      <c r="B67" t="n">
+        <v>65</v>
+      </c>
+      <c r="C67" t="n">
+        <v>65</v>
+      </c>
+      <c r="D67" t="inlineStr">
         <is>
           <t>ALRS</t>
         </is>
       </c>
-      <c r="C67" t="inlineStr">
+      <c r="E67" t="inlineStr">
         <is>
           <t>1731674289.2760937</t>
         </is>
       </c>
-      <c r="D67" t="inlineStr">
+      <c r="F67" t="inlineStr">
         <is>
           <t>1731674290.9317951</t>
         </is>
       </c>
-      <c r="E67" t="inlineStr">
+      <c r="G67" t="inlineStr">
         <is>
           <t>./test_images/ALRS1731674289.2760937.png</t>
         </is>
       </c>
-      <c r="F67" t="inlineStr">
+      <c r="H67" t="inlineStr">
         <is>
           <t>./test_images/ALRS1731674290.9317951.png</t>
         </is>
       </c>
-      <c r="G67" t="inlineStr">
+      <c r="I67" t="inlineStr">
         <is>
           <t>short</t>
         </is>
       </c>
-      <c r="H67" t="inlineStr">
-        <is>
-          <t>ST3</t>
-        </is>
-      </c>
-      <c r="I67" t="n">
+      <c r="J67" t="inlineStr">
+        <is>
+          <t>ST3</t>
+        </is>
+      </c>
+      <c r="K67" t="n">
         <v>59.44</v>
       </c>
-      <c r="J67" t="n">
+      <c r="L67" t="n">
         <v>59.32</v>
       </c>
-      <c r="K67" t="n">
+      <c r="M67" t="n">
         <v>0.1199999999999974</v>
       </c>
-      <c r="L67" t="n">
+      <c r="N67" t="n">
         <v>0.2</v>
       </c>
     </row>
@@ -3909,51 +4315,57 @@
       <c r="A68" s="1" t="n">
         <v>66</v>
       </c>
-      <c r="B68" t="inlineStr">
+      <c r="B68" t="n">
+        <v>66</v>
+      </c>
+      <c r="C68" t="n">
+        <v>66</v>
+      </c>
+      <c r="D68" t="inlineStr">
         <is>
           <t>ALRS</t>
         </is>
       </c>
-      <c r="C68" t="inlineStr">
+      <c r="E68" t="inlineStr">
         <is>
           <t>1731674292.4118505</t>
         </is>
       </c>
-      <c r="D68" t="inlineStr">
+      <c r="F68" t="inlineStr">
         <is>
           <t>1731674293.6864185</t>
         </is>
       </c>
-      <c r="E68" t="inlineStr">
+      <c r="G68" t="inlineStr">
         <is>
           <t>./test_images/ALRS1731674292.4118505.png</t>
         </is>
       </c>
-      <c r="F68" t="inlineStr">
+      <c r="H68" t="inlineStr">
         <is>
           <t>./test_images/ALRS1731674293.6864185.png</t>
         </is>
       </c>
-      <c r="G68" t="inlineStr">
+      <c r="I68" t="inlineStr">
         <is>
           <t>short</t>
         </is>
       </c>
-      <c r="H68" t="inlineStr">
-        <is>
-          <t>ST3</t>
-        </is>
-      </c>
-      <c r="I68" t="n">
+      <c r="J68" t="inlineStr">
+        <is>
+          <t>ST3</t>
+        </is>
+      </c>
+      <c r="K68" t="n">
         <v>59.3</v>
       </c>
-      <c r="J68" t="n">
+      <c r="L68" t="n">
         <v>59.55</v>
       </c>
-      <c r="K68" t="n">
+      <c r="M68" t="n">
         <v>-0.25</v>
       </c>
-      <c r="L68" t="n">
+      <c r="N68" t="n">
         <v>-0.42</v>
       </c>
     </row>
@@ -3961,51 +4373,57 @@
       <c r="A69" s="1" t="n">
         <v>67</v>
       </c>
-      <c r="B69" t="inlineStr">
+      <c r="B69" t="n">
+        <v>67</v>
+      </c>
+      <c r="C69" t="n">
+        <v>67</v>
+      </c>
+      <c r="D69" t="inlineStr">
         <is>
           <t>ALRS</t>
         </is>
       </c>
-      <c r="C69" t="inlineStr">
+      <c r="E69" t="inlineStr">
         <is>
           <t>1731674301.4691327</t>
         </is>
       </c>
-      <c r="D69" t="inlineStr">
+      <c r="F69" t="inlineStr">
         <is>
           <t>1731674301.8218827</t>
         </is>
       </c>
-      <c r="E69" t="inlineStr">
+      <c r="G69" t="inlineStr">
         <is>
           <t>./test_images/ALRS1731674301.4691327.png</t>
         </is>
       </c>
-      <c r="F69" t="inlineStr">
+      <c r="H69" t="inlineStr">
         <is>
           <t>./test_images/ALRS1731674301.8218827.png</t>
         </is>
       </c>
-      <c r="G69" t="inlineStr">
+      <c r="I69" t="inlineStr">
         <is>
           <t>long</t>
         </is>
       </c>
-      <c r="H69" t="inlineStr">
-        <is>
-          <t>ST3</t>
-        </is>
-      </c>
-      <c r="I69" t="n">
+      <c r="J69" t="inlineStr">
+        <is>
+          <t>ST3</t>
+        </is>
+      </c>
+      <c r="K69" t="n">
         <v>60.04</v>
       </c>
-      <c r="J69" t="n">
+      <c r="L69" t="n">
         <v>60.17</v>
       </c>
-      <c r="K69" t="n">
+      <c r="M69" t="n">
         <v>0.1300000000000026</v>
       </c>
-      <c r="L69" t="n">
+      <c r="N69" t="n">
         <v>0.22</v>
       </c>
     </row>
@@ -4013,51 +4431,57 @@
       <c r="A70" s="1" t="n">
         <v>68</v>
       </c>
-      <c r="B70" t="inlineStr">
+      <c r="B70" t="n">
+        <v>68</v>
+      </c>
+      <c r="C70" t="n">
+        <v>68</v>
+      </c>
+      <c r="D70" t="inlineStr">
         <is>
           <t>VTBR</t>
         </is>
       </c>
-      <c r="C70" t="inlineStr">
+      <c r="E70" t="inlineStr">
         <is>
           <t>1731674318.090253</t>
         </is>
       </c>
-      <c r="D70" t="inlineStr">
+      <c r="F70" t="inlineStr">
         <is>
           <t>1731674319.8789814</t>
         </is>
       </c>
-      <c r="E70" t="inlineStr">
+      <c r="G70" t="inlineStr">
         <is>
           <t>./test_images/VTBR1731674318.090253.png</t>
         </is>
       </c>
-      <c r="F70" t="inlineStr">
+      <c r="H70" t="inlineStr">
         <is>
           <t>./test_images/VTBR1731674319.8789814.png</t>
         </is>
       </c>
-      <c r="G70" t="inlineStr">
+      <c r="I70" t="inlineStr">
         <is>
           <t>short</t>
         </is>
       </c>
-      <c r="H70" t="inlineStr">
-        <is>
-          <t>ST3</t>
-        </is>
-      </c>
-      <c r="I70" t="n">
+      <c r="J70" t="inlineStr">
+        <is>
+          <t>ST3</t>
+        </is>
+      </c>
+      <c r="K70" t="n">
         <v>95.93000000000001</v>
       </c>
-      <c r="J70" t="n">
+      <c r="L70" t="n">
         <v>95.65000000000001</v>
       </c>
-      <c r="K70" t="n">
+      <c r="M70" t="n">
         <v>0.2800000000000011</v>
       </c>
-      <c r="L70" t="n">
+      <c r="N70" t="n">
         <v>0.29</v>
       </c>
     </row>
@@ -4065,51 +4489,57 @@
       <c r="A71" s="1" t="n">
         <v>69</v>
       </c>
-      <c r="B71" t="inlineStr">
+      <c r="B71" t="n">
+        <v>69</v>
+      </c>
+      <c r="C71" t="n">
+        <v>69</v>
+      </c>
+      <c r="D71" t="inlineStr">
         <is>
           <t>VTBR</t>
         </is>
       </c>
-      <c r="C71" t="inlineStr">
+      <c r="E71" t="inlineStr">
         <is>
           <t>1731674320.7192013</t>
         </is>
       </c>
-      <c r="D71" t="inlineStr">
+      <c r="F71" t="inlineStr">
         <is>
           <t>1731674321.96683</t>
         </is>
       </c>
-      <c r="E71" t="inlineStr">
+      <c r="G71" t="inlineStr">
         <is>
           <t>./test_images/VTBR1731674320.7192013.png</t>
         </is>
       </c>
-      <c r="F71" t="inlineStr">
+      <c r="H71" t="inlineStr">
         <is>
           <t>./test_images/VTBR1731674321.96683.png</t>
         </is>
       </c>
-      <c r="G71" t="inlineStr">
+      <c r="I71" t="inlineStr">
         <is>
           <t>short</t>
         </is>
       </c>
-      <c r="H71" t="inlineStr">
-        <is>
-          <t>ST3</t>
-        </is>
-      </c>
-      <c r="I71" t="n">
+      <c r="J71" t="inlineStr">
+        <is>
+          <t>ST3</t>
+        </is>
+      </c>
+      <c r="K71" t="n">
         <v>95.64</v>
       </c>
-      <c r="J71" t="n">
+      <c r="L71" t="n">
         <v>96.09999999999999</v>
       </c>
-      <c r="K71" t="n">
+      <c r="M71" t="n">
         <v>-0.4599999999999937</v>
       </c>
-      <c r="L71" t="n">
+      <c r="N71" t="n">
         <v>-0.48</v>
       </c>
     </row>
@@ -4117,51 +4547,57 @@
       <c r="A72" s="1" t="n">
         <v>70</v>
       </c>
-      <c r="B72" t="inlineStr">
+      <c r="B72" t="n">
+        <v>70</v>
+      </c>
+      <c r="C72" t="n">
+        <v>70</v>
+      </c>
+      <c r="D72" t="inlineStr">
         <is>
           <t>SELG</t>
         </is>
       </c>
-      <c r="C72" t="inlineStr">
+      <c r="E72" t="inlineStr">
         <is>
           <t>1731674333.3964539</t>
         </is>
       </c>
-      <c r="D72" t="inlineStr">
+      <c r="F72" t="inlineStr">
         <is>
           <t>1731674335.250307</t>
         </is>
       </c>
-      <c r="E72" t="inlineStr">
+      <c r="G72" t="inlineStr">
         <is>
           <t>./test_images/SELG1731674333.3964539.png</t>
         </is>
       </c>
-      <c r="F72" t="inlineStr">
+      <c r="H72" t="inlineStr">
         <is>
           <t>./test_images/SELG1731674335.250307.png</t>
         </is>
       </c>
-      <c r="G72" t="inlineStr">
+      <c r="I72" t="inlineStr">
         <is>
           <t>long</t>
         </is>
       </c>
-      <c r="H72" t="inlineStr">
-        <is>
-          <t>ST3</t>
-        </is>
-      </c>
-      <c r="I72" t="n">
+      <c r="J72" t="inlineStr">
+        <is>
+          <t>ST3</t>
+        </is>
+      </c>
+      <c r="K72" t="n">
         <v>56.32</v>
       </c>
-      <c r="J72" t="n">
+      <c r="L72" t="n">
         <v>56.09</v>
       </c>
-      <c r="K72" t="n">
+      <c r="M72" t="n">
         <v>-0.2299999999999969</v>
       </c>
-      <c r="L72" t="n">
+      <c r="N72" t="n">
         <v>-0.41</v>
       </c>
     </row>
@@ -4169,51 +4605,57 @@
       <c r="A73" s="1" t="n">
         <v>71</v>
       </c>
-      <c r="B73" t="inlineStr">
+      <c r="B73" t="n">
+        <v>71</v>
+      </c>
+      <c r="C73" t="n">
+        <v>71</v>
+      </c>
+      <c r="D73" t="inlineStr">
         <is>
           <t>SELG</t>
         </is>
       </c>
-      <c r="C73" t="inlineStr">
+      <c r="E73" t="inlineStr">
         <is>
           <t>1731674344.4819832</t>
         </is>
       </c>
-      <c r="D73" t="inlineStr">
+      <c r="F73" t="inlineStr">
         <is>
           <t>1731674344.7929435</t>
         </is>
       </c>
-      <c r="E73" t="inlineStr">
+      <c r="G73" t="inlineStr">
         <is>
           <t>./test_images/SELG1731674344.4819832.png</t>
         </is>
       </c>
-      <c r="F73" t="inlineStr">
+      <c r="H73" t="inlineStr">
         <is>
           <t>./test_images/SELG1731674344.7929435.png</t>
         </is>
       </c>
-      <c r="G73" t="inlineStr">
+      <c r="I73" t="inlineStr">
         <is>
           <t>short</t>
         </is>
       </c>
-      <c r="H73" t="inlineStr">
-        <is>
-          <t>ST3</t>
-        </is>
-      </c>
-      <c r="I73" t="n">
+      <c r="J73" t="inlineStr">
+        <is>
+          <t>ST3</t>
+        </is>
+      </c>
+      <c r="K73" t="n">
         <v>55.68</v>
       </c>
-      <c r="J73" t="n">
+      <c r="L73" t="n">
         <v>55.6</v>
       </c>
-      <c r="K73" t="n">
+      <c r="M73" t="n">
         <v>0.07999999999999829</v>
       </c>
-      <c r="L73" t="n">
+      <c r="N73" t="n">
         <v>0.14</v>
       </c>
     </row>
@@ -4221,51 +4663,57 @@
       <c r="A74" s="1" t="n">
         <v>72</v>
       </c>
-      <c r="B74" t="inlineStr">
+      <c r="B74" t="n">
+        <v>72</v>
+      </c>
+      <c r="C74" t="n">
+        <v>72</v>
+      </c>
+      <c r="D74" t="inlineStr">
         <is>
           <t>SELG</t>
         </is>
       </c>
-      <c r="C74" t="inlineStr">
+      <c r="E74" t="inlineStr">
         <is>
           <t>1731674347.3647337</t>
         </is>
       </c>
-      <c r="D74" t="inlineStr">
+      <c r="F74" t="inlineStr">
         <is>
           <t>1731674348.7755516</t>
         </is>
       </c>
-      <c r="E74" t="inlineStr">
+      <c r="G74" t="inlineStr">
         <is>
           <t>./test_images/SELG1731674347.3647337.png</t>
         </is>
       </c>
-      <c r="F74" t="inlineStr">
+      <c r="H74" t="inlineStr">
         <is>
           <t>./test_images/SELG1731674348.7755516.png</t>
         </is>
       </c>
-      <c r="G74" t="inlineStr">
+      <c r="I74" t="inlineStr">
         <is>
           <t>short</t>
         </is>
       </c>
-      <c r="H74" t="inlineStr">
-        <is>
-          <t>ST3</t>
-        </is>
-      </c>
-      <c r="I74" t="n">
+      <c r="J74" t="inlineStr">
+        <is>
+          <t>ST3</t>
+        </is>
+      </c>
+      <c r="K74" t="n">
         <v>55.27</v>
       </c>
-      <c r="J74" t="n">
+      <c r="L74" t="n">
         <v>55.36</v>
       </c>
-      <c r="K74" t="n">
+      <c r="M74" t="n">
         <v>-0.08999999999999631</v>
       </c>
-      <c r="L74" t="n">
+      <c r="N74" t="n">
         <v>-0.16</v>
       </c>
     </row>
@@ -4273,51 +4721,57 @@
       <c r="A75" s="1" t="n">
         <v>73</v>
       </c>
-      <c r="B75" t="inlineStr">
+      <c r="B75" t="n">
+        <v>73</v>
+      </c>
+      <c r="C75" t="n">
+        <v>73</v>
+      </c>
+      <c r="D75" t="inlineStr">
         <is>
           <t>SOFL</t>
         </is>
       </c>
-      <c r="C75" t="inlineStr">
+      <c r="E75" t="inlineStr">
         <is>
           <t>1731674356.8300354</t>
         </is>
       </c>
-      <c r="D75" t="inlineStr">
+      <c r="F75" t="inlineStr">
         <is>
           <t>1731674357.6309621</t>
         </is>
       </c>
-      <c r="E75" t="inlineStr">
+      <c r="G75" t="inlineStr">
         <is>
           <t>./test_images/SOFL1731674356.8300354.png</t>
         </is>
       </c>
-      <c r="F75" t="inlineStr">
+      <c r="H75" t="inlineStr">
         <is>
           <t>./test_images/SOFL1731674357.6309621.png</t>
         </is>
       </c>
-      <c r="G75" t="inlineStr">
+      <c r="I75" t="inlineStr">
         <is>
           <t>long</t>
         </is>
       </c>
-      <c r="H75" t="inlineStr">
-        <is>
-          <t>ST3</t>
-        </is>
-      </c>
-      <c r="I75" t="n">
+      <c r="J75" t="inlineStr">
+        <is>
+          <t>ST3</t>
+        </is>
+      </c>
+      <c r="K75" t="n">
         <v>143.12</v>
       </c>
-      <c r="J75" t="n">
+      <c r="L75" t="n">
         <v>142.86</v>
       </c>
-      <c r="K75" t="n">
+      <c r="M75" t="n">
         <v>-0.2599999999999909</v>
       </c>
-      <c r="L75" t="n">
+      <c r="N75" t="n">
         <v>-0.18</v>
       </c>
     </row>
@@ -4325,51 +4779,57 @@
       <c r="A76" s="1" t="n">
         <v>74</v>
       </c>
-      <c r="B76" t="inlineStr">
+      <c r="B76" t="n">
+        <v>74</v>
+      </c>
+      <c r="C76" t="n">
+        <v>74</v>
+      </c>
+      <c r="D76" t="inlineStr">
         <is>
           <t>SOFL</t>
         </is>
       </c>
-      <c r="C76" t="inlineStr">
+      <c r="E76" t="inlineStr">
         <is>
           <t>1731674358.4552197</t>
         </is>
       </c>
-      <c r="D76" t="inlineStr">
+      <c r="F76" t="inlineStr">
         <is>
           <t>1731674365.1464949</t>
         </is>
       </c>
-      <c r="E76" t="inlineStr">
+      <c r="G76" t="inlineStr">
         <is>
           <t>./test_images/SOFL1731674358.4552197.png</t>
         </is>
       </c>
-      <c r="F76" t="inlineStr">
+      <c r="H76" t="inlineStr">
         <is>
           <t>./test_images/SOFL1731674365.1464949.png</t>
         </is>
       </c>
-      <c r="G76" t="inlineStr">
+      <c r="I76" t="inlineStr">
         <is>
           <t>long</t>
         </is>
       </c>
-      <c r="H76" t="inlineStr">
-        <is>
-          <t>ST3</t>
-        </is>
-      </c>
-      <c r="I76" t="n">
+      <c r="J76" t="inlineStr">
+        <is>
+          <t>ST3</t>
+        </is>
+      </c>
+      <c r="K76" t="n">
         <v>144.3</v>
       </c>
-      <c r="J76" t="n">
+      <c r="L76" t="n">
         <v>143.62</v>
       </c>
-      <c r="K76" t="n">
+      <c r="M76" t="n">
         <v>-0.6800000000000068</v>
       </c>
-      <c r="L76" t="n">
+      <c r="N76" t="n">
         <v>-0.47</v>
       </c>
     </row>
@@ -4377,51 +4837,57 @@
       <c r="A77" s="1" t="n">
         <v>75</v>
       </c>
-      <c r="B77" t="inlineStr">
+      <c r="B77" t="n">
+        <v>75</v>
+      </c>
+      <c r="C77" t="n">
+        <v>75</v>
+      </c>
+      <c r="D77" t="inlineStr">
         <is>
           <t>SOFL</t>
         </is>
       </c>
-      <c r="C77" t="inlineStr">
+      <c r="E77" t="inlineStr">
         <is>
           <t>1731674371.3099787</t>
         </is>
       </c>
-      <c r="D77" t="inlineStr">
+      <c r="F77" t="inlineStr">
         <is>
           <t>1731674374.2683423</t>
         </is>
       </c>
-      <c r="E77" t="inlineStr">
+      <c r="G77" t="inlineStr">
         <is>
           <t>./test_images/SOFL1731674371.3099787.png</t>
         </is>
       </c>
-      <c r="F77" t="inlineStr">
+      <c r="H77" t="inlineStr">
         <is>
           <t>./test_images/SOFL1731674374.2683423.png</t>
         </is>
       </c>
-      <c r="G77" t="inlineStr">
+      <c r="I77" t="inlineStr">
         <is>
           <t>short</t>
         </is>
       </c>
-      <c r="H77" t="inlineStr">
-        <is>
-          <t>ST3</t>
-        </is>
-      </c>
-      <c r="I77" t="n">
+      <c r="J77" t="inlineStr">
+        <is>
+          <t>ST3</t>
+        </is>
+      </c>
+      <c r="K77" t="n">
         <v>142.58</v>
       </c>
-      <c r="J77" t="n">
+      <c r="L77" t="n">
         <v>143.44</v>
       </c>
-      <c r="K77" t="n">
+      <c r="M77" t="n">
         <v>-0.8599999999999852</v>
       </c>
-      <c r="L77" t="n">
+      <c r="N77" t="n">
         <v>-0.6</v>
       </c>
     </row>
@@ -4429,51 +4895,57 @@
       <c r="A78" s="1" t="n">
         <v>76</v>
       </c>
-      <c r="B78" t="inlineStr">
+      <c r="B78" t="n">
+        <v>76</v>
+      </c>
+      <c r="C78" t="n">
+        <v>76</v>
+      </c>
+      <c r="D78" t="inlineStr">
         <is>
           <t>SOFL</t>
         </is>
       </c>
-      <c r="C78" t="inlineStr">
+      <c r="E78" t="inlineStr">
         <is>
           <t>1731674381.231752</t>
         </is>
       </c>
-      <c r="D78" t="inlineStr">
+      <c r="F78" t="inlineStr">
         <is>
           <t>1731674382.3964877</t>
         </is>
       </c>
-      <c r="E78" t="inlineStr">
+      <c r="G78" t="inlineStr">
         <is>
           <t>./test_images/SOFL1731674381.231752.png</t>
         </is>
       </c>
-      <c r="F78" t="inlineStr">
+      <c r="H78" t="inlineStr">
         <is>
           <t>./test_images/SOFL1731674382.3964877.png</t>
         </is>
       </c>
-      <c r="G78" t="inlineStr">
+      <c r="I78" t="inlineStr">
         <is>
           <t>long</t>
         </is>
       </c>
-      <c r="H78" t="inlineStr">
-        <is>
-          <t>ST3</t>
-        </is>
-      </c>
-      <c r="I78" t="n">
+      <c r="J78" t="inlineStr">
+        <is>
+          <t>ST3</t>
+        </is>
+      </c>
+      <c r="K78" t="n">
         <v>143.7</v>
       </c>
-      <c r="J78" t="n">
+      <c r="L78" t="n">
         <v>144.04</v>
       </c>
-      <c r="K78" t="n">
+      <c r="M78" t="n">
         <v>0.3400000000000034</v>
       </c>
-      <c r="L78" t="n">
+      <c r="N78" t="n">
         <v>0.24</v>
       </c>
     </row>
@@ -4481,51 +4953,57 @@
       <c r="A79" s="1" t="n">
         <v>77</v>
       </c>
-      <c r="B79" t="inlineStr">
+      <c r="B79" t="n">
+        <v>77</v>
+      </c>
+      <c r="C79" t="n">
+        <v>77</v>
+      </c>
+      <c r="D79" t="inlineStr">
         <is>
           <t>AFKS</t>
         </is>
       </c>
-      <c r="C79" t="inlineStr">
+      <c r="E79" t="inlineStr">
         <is>
           <t>1731674383.065769</t>
         </is>
       </c>
-      <c r="D79" t="inlineStr">
+      <c r="F79" t="inlineStr">
         <is>
           <t>1731674383.7598534</t>
         </is>
       </c>
-      <c r="E79" t="inlineStr">
+      <c r="G79" t="inlineStr">
         <is>
           <t>./test_images/AFKS1731674383.065769.png</t>
         </is>
       </c>
-      <c r="F79" t="inlineStr">
+      <c r="H79" t="inlineStr">
         <is>
           <t>./test_images/AFKS1731674383.7598534.png</t>
         </is>
       </c>
-      <c r="G79" t="inlineStr">
+      <c r="I79" t="inlineStr">
         <is>
           <t>long</t>
         </is>
       </c>
-      <c r="H79" t="inlineStr">
-        <is>
-          <t>ST3</t>
-        </is>
-      </c>
-      <c r="I79" t="n">
+      <c r="J79" t="inlineStr">
+        <is>
+          <t>ST3</t>
+        </is>
+      </c>
+      <c r="K79" t="n">
         <v>20.058</v>
       </c>
-      <c r="J79" t="n">
+      <c r="L79" t="n">
         <v>20.081</v>
       </c>
-      <c r="K79" t="n">
+      <c r="M79" t="n">
         <v>0.02299999999999969</v>
       </c>
-      <c r="L79" t="n">
+      <c r="N79" t="n">
         <v>0.11</v>
       </c>
     </row>
@@ -4533,51 +5011,57 @@
       <c r="A80" s="1" t="n">
         <v>78</v>
       </c>
-      <c r="B80" t="inlineStr">
+      <c r="B80" t="n">
+        <v>78</v>
+      </c>
+      <c r="C80" t="n">
+        <v>78</v>
+      </c>
+      <c r="D80" t="inlineStr">
         <is>
           <t>AFKS</t>
         </is>
       </c>
-      <c r="C80" t="inlineStr">
+      <c r="E80" t="inlineStr">
         <is>
           <t>1731674384.4777112</t>
         </is>
       </c>
-      <c r="D80" t="inlineStr">
+      <c r="F80" t="inlineStr">
         <is>
           <t>1731674386.7344406</t>
         </is>
       </c>
-      <c r="E80" t="inlineStr">
+      <c r="G80" t="inlineStr">
         <is>
           <t>./test_images/AFKS1731674384.4777112.png</t>
         </is>
       </c>
-      <c r="F80" t="inlineStr">
+      <c r="H80" t="inlineStr">
         <is>
           <t>./test_images/AFKS1731674386.7344406.png</t>
         </is>
       </c>
-      <c r="G80" t="inlineStr">
+      <c r="I80" t="inlineStr">
         <is>
           <t>long</t>
         </is>
       </c>
-      <c r="H80" t="inlineStr">
-        <is>
-          <t>ST3</t>
-        </is>
-      </c>
-      <c r="I80" t="n">
+      <c r="J80" t="inlineStr">
+        <is>
+          <t>ST3</t>
+        </is>
+      </c>
+      <c r="K80" t="n">
         <v>20.119</v>
       </c>
-      <c r="J80" t="n">
+      <c r="L80" t="n">
         <v>20.032</v>
       </c>
-      <c r="K80" t="n">
+      <c r="M80" t="n">
         <v>-0.08699999999999974</v>
       </c>
-      <c r="L80" t="n">
+      <c r="N80" t="n">
         <v>-0.43</v>
       </c>
     </row>
@@ -4585,51 +5069,57 @@
       <c r="A81" s="1" t="n">
         <v>79</v>
       </c>
-      <c r="B81" t="inlineStr">
+      <c r="B81" t="n">
+        <v>79</v>
+      </c>
+      <c r="C81" t="n">
+        <v>79</v>
+      </c>
+      <c r="D81" t="inlineStr">
         <is>
           <t>AFKS</t>
         </is>
       </c>
-      <c r="C81" t="inlineStr">
+      <c r="E81" t="inlineStr">
         <is>
           <t>1731674393.9046545</t>
         </is>
       </c>
-      <c r="D81" t="inlineStr">
+      <c r="F81" t="inlineStr">
         <is>
           <t>1731674394.72879</t>
         </is>
       </c>
-      <c r="E81" t="inlineStr">
+      <c r="G81" t="inlineStr">
         <is>
           <t>./test_images/AFKS1731674393.9046545.png</t>
         </is>
       </c>
-      <c r="F81" t="inlineStr">
+      <c r="H81" t="inlineStr">
         <is>
           <t>./test_images/AFKS1731674394.72879.png</t>
         </is>
       </c>
-      <c r="G81" t="inlineStr">
+      <c r="I81" t="inlineStr">
         <is>
           <t>short</t>
         </is>
       </c>
-      <c r="H81" t="inlineStr">
-        <is>
-          <t>ST3</t>
-        </is>
-      </c>
-      <c r="I81" t="n">
+      <c r="J81" t="inlineStr">
+        <is>
+          <t>ST3</t>
+        </is>
+      </c>
+      <c r="K81" t="n">
         <v>19.901</v>
       </c>
-      <c r="J81" t="n">
+      <c r="L81" t="n">
         <v>19.785</v>
       </c>
-      <c r="K81" t="n">
+      <c r="M81" t="n">
         <v>0.1159999999999997</v>
       </c>
-      <c r="L81" t="n">
+      <c r="N81" t="n">
         <v>0.58</v>
       </c>
     </row>
@@ -4637,51 +5127,57 @@
       <c r="A82" s="1" t="n">
         <v>80</v>
       </c>
-      <c r="B82" t="inlineStr">
+      <c r="B82" t="n">
+        <v>80</v>
+      </c>
+      <c r="C82" t="n">
+        <v>80</v>
+      </c>
+      <c r="D82" t="inlineStr">
         <is>
           <t>AFKS</t>
         </is>
       </c>
-      <c r="C82" t="inlineStr">
+      <c r="E82" t="inlineStr">
         <is>
           <t>1731674396.0729547</t>
         </is>
       </c>
-      <c r="D82" t="inlineStr">
+      <c r="F82" t="inlineStr">
         <is>
           <t>1731674400.390971</t>
         </is>
       </c>
-      <c r="E82" t="inlineStr">
+      <c r="G82" t="inlineStr">
         <is>
           <t>./test_images/AFKS1731674396.0729547.png</t>
         </is>
       </c>
-      <c r="F82" t="inlineStr">
+      <c r="H82" t="inlineStr">
         <is>
           <t>./test_images/AFKS1731674400.390971.png</t>
         </is>
       </c>
-      <c r="G82" t="inlineStr">
+      <c r="I82" t="inlineStr">
         <is>
           <t>short</t>
         </is>
       </c>
-      <c r="H82" t="inlineStr">
-        <is>
-          <t>ST3</t>
-        </is>
-      </c>
-      <c r="I82" t="n">
+      <c r="J82" t="inlineStr">
+        <is>
+          <t>ST3</t>
+        </is>
+      </c>
+      <c r="K82" t="n">
         <v>19.74</v>
       </c>
-      <c r="J82" t="n">
+      <c r="L82" t="n">
         <v>19.708</v>
       </c>
-      <c r="K82" t="n">
+      <c r="M82" t="n">
         <v>0.03200000000000003</v>
       </c>
-      <c r="L82" t="n">
+      <c r="N82" t="n">
         <v>0.16</v>
       </c>
     </row>
@@ -4689,51 +5185,57 @@
       <c r="A83" s="1" t="n">
         <v>81</v>
       </c>
-      <c r="B83" t="inlineStr">
+      <c r="B83" t="n">
+        <v>81</v>
+      </c>
+      <c r="C83" t="n">
+        <v>81</v>
+      </c>
+      <c r="D83" t="inlineStr">
         <is>
           <t>AFKS</t>
         </is>
       </c>
-      <c r="C83" t="inlineStr">
+      <c r="E83" t="inlineStr">
         <is>
           <t>1731674405.3882759</t>
         </is>
       </c>
-      <c r="D83" t="inlineStr">
+      <c r="F83" t="inlineStr">
         <is>
           <t>1731674407.2809408</t>
         </is>
       </c>
-      <c r="E83" t="inlineStr">
+      <c r="G83" t="inlineStr">
         <is>
           <t>./test_images/AFKS1731674405.3882759.png</t>
         </is>
       </c>
-      <c r="F83" t="inlineStr">
+      <c r="H83" t="inlineStr">
         <is>
           <t>./test_images/AFKS1731674407.2809408.png</t>
         </is>
       </c>
-      <c r="G83" t="inlineStr">
+      <c r="I83" t="inlineStr">
         <is>
           <t>long</t>
         </is>
       </c>
-      <c r="H83" t="inlineStr">
-        <is>
-          <t>ST3</t>
-        </is>
-      </c>
-      <c r="I83" t="n">
+      <c r="J83" t="inlineStr">
+        <is>
+          <t>ST3</t>
+        </is>
+      </c>
+      <c r="K83" t="n">
         <v>19.954</v>
       </c>
-      <c r="J83" t="n">
+      <c r="L83" t="n">
         <v>19.867</v>
       </c>
-      <c r="K83" t="n">
+      <c r="M83" t="n">
         <v>-0.08699999999999974</v>
       </c>
-      <c r="L83" t="n">
+      <c r="N83" t="n">
         <v>-0.44</v>
       </c>
     </row>
@@ -4741,51 +5243,57 @@
       <c r="A84" s="1" t="n">
         <v>82</v>
       </c>
-      <c r="B84" t="inlineStr">
+      <c r="B84" t="n">
+        <v>82</v>
+      </c>
+      <c r="C84" t="n">
+        <v>82</v>
+      </c>
+      <c r="D84" t="inlineStr">
         <is>
           <t>SIBN</t>
         </is>
       </c>
-      <c r="C84" t="inlineStr">
+      <c r="E84" t="inlineStr">
         <is>
           <t>1731674411.2381425</t>
         </is>
       </c>
-      <c r="D84" t="inlineStr">
+      <c r="F84" t="inlineStr">
         <is>
           <t>1731674414.6905932</t>
         </is>
       </c>
-      <c r="E84" t="inlineStr">
+      <c r="G84" t="inlineStr">
         <is>
           <t>./test_images/SIBN1731674411.2381425.png</t>
         </is>
       </c>
-      <c r="F84" t="inlineStr">
+      <c r="H84" t="inlineStr">
         <is>
           <t>./test_images/SIBN1731674414.6905932.png</t>
         </is>
       </c>
-      <c r="G84" t="inlineStr">
+      <c r="I84" t="inlineStr">
         <is>
           <t>long</t>
         </is>
       </c>
-      <c r="H84" t="inlineStr">
-        <is>
-          <t>ST3</t>
-        </is>
-      </c>
-      <c r="I84" t="n">
+      <c r="J84" t="inlineStr">
+        <is>
+          <t>ST3</t>
+        </is>
+      </c>
+      <c r="K84" t="n">
         <v>667.35</v>
       </c>
-      <c r="J84" t="n">
+      <c r="L84" t="n">
         <v>668.25</v>
       </c>
-      <c r="K84" t="n">
+      <c r="M84" t="n">
         <v>0.8999999999999773</v>
       </c>
-      <c r="L84" t="n">
+      <c r="N84" t="n">
         <v>0.13</v>
       </c>
     </row>
@@ -4793,51 +5301,57 @@
       <c r="A85" s="1" t="n">
         <v>83</v>
       </c>
-      <c r="B85" t="inlineStr">
+      <c r="B85" t="n">
+        <v>83</v>
+      </c>
+      <c r="C85" t="n">
+        <v>83</v>
+      </c>
+      <c r="D85" t="inlineStr">
         <is>
           <t>SIBN</t>
         </is>
       </c>
-      <c r="C85" t="inlineStr">
+      <c r="E85" t="inlineStr">
         <is>
           <t>1731674425.5223365</t>
         </is>
       </c>
-      <c r="D85" t="inlineStr">
+      <c r="F85" t="inlineStr">
         <is>
           <t>1731674426.4617004</t>
         </is>
       </c>
-      <c r="E85" t="inlineStr">
+      <c r="G85" t="inlineStr">
         <is>
           <t>./test_images/SIBN1731674425.5223365.png</t>
         </is>
       </c>
-      <c r="F85" t="inlineStr">
+      <c r="H85" t="inlineStr">
         <is>
           <t>./test_images/SIBN1731674426.4617004.png</t>
         </is>
       </c>
-      <c r="G85" t="inlineStr">
+      <c r="I85" t="inlineStr">
         <is>
           <t>short</t>
         </is>
       </c>
-      <c r="H85" t="inlineStr">
-        <is>
-          <t>ST3</t>
-        </is>
-      </c>
-      <c r="I85" t="n">
+      <c r="J85" t="inlineStr">
+        <is>
+          <t>ST3</t>
+        </is>
+      </c>
+      <c r="K85" t="n">
         <v>662.2</v>
       </c>
-      <c r="J85" t="n">
+      <c r="L85" t="n">
         <v>662.9</v>
       </c>
-      <c r="K85" t="n">
+      <c r="M85" t="n">
         <v>-0.6999999999999318</v>
       </c>
-      <c r="L85" t="n">
+      <c r="N85" t="n">
         <v>-0.11</v>
       </c>
     </row>
@@ -4845,51 +5359,57 @@
       <c r="A86" s="1" t="n">
         <v>84</v>
       </c>
-      <c r="B86" t="inlineStr">
+      <c r="B86" t="n">
+        <v>84</v>
+      </c>
+      <c r="C86" t="n">
+        <v>84</v>
+      </c>
+      <c r="D86" t="inlineStr">
         <is>
           <t>SIBN</t>
         </is>
       </c>
-      <c r="C86" t="inlineStr">
+      <c r="E86" t="inlineStr">
         <is>
           <t>1731674431.0947344</t>
         </is>
       </c>
-      <c r="D86" t="inlineStr">
+      <c r="F86" t="inlineStr">
         <is>
           <t>1731674431.3420825</t>
         </is>
       </c>
-      <c r="E86" t="inlineStr">
+      <c r="G86" t="inlineStr">
         <is>
           <t>./test_images/SIBN1731674431.0947344.png</t>
         </is>
       </c>
-      <c r="F86" t="inlineStr">
+      <c r="H86" t="inlineStr">
         <is>
           <t>./test_images/SIBN1731674431.3420825.png</t>
         </is>
       </c>
-      <c r="G86" t="inlineStr">
+      <c r="I86" t="inlineStr">
         <is>
           <t>long</t>
         </is>
       </c>
-      <c r="H86" t="inlineStr">
-        <is>
-          <t>ST3</t>
-        </is>
-      </c>
-      <c r="I86" t="n">
+      <c r="J86" t="inlineStr">
+        <is>
+          <t>ST3</t>
+        </is>
+      </c>
+      <c r="K86" t="n">
         <v>669.1</v>
       </c>
-      <c r="J86" t="n">
+      <c r="L86" t="n">
         <v>670.95</v>
       </c>
-      <c r="K86" t="n">
+      <c r="M86" t="n">
         <v>1.850000000000023</v>
       </c>
-      <c r="L86" t="n">
+      <c r="N86" t="n">
         <v>0.28</v>
       </c>
     </row>
@@ -4897,51 +5417,57 @@
       <c r="A87" s="1" t="n">
         <v>85</v>
       </c>
-      <c r="B87" t="inlineStr">
+      <c r="B87" t="n">
+        <v>85</v>
+      </c>
+      <c r="C87" t="n">
+        <v>85</v>
+      </c>
+      <c r="D87" t="inlineStr">
         <is>
           <t>SIBN</t>
         </is>
       </c>
-      <c r="C87" t="inlineStr">
+      <c r="E87" t="inlineStr">
         <is>
           <t>1731674431.4676182</t>
         </is>
       </c>
-      <c r="D87" t="inlineStr">
+      <c r="F87" t="inlineStr">
         <is>
           <t>1731674433.2064416</t>
         </is>
       </c>
-      <c r="E87" t="inlineStr">
+      <c r="G87" t="inlineStr">
         <is>
           <t>./test_images/SIBN1731674431.4676182.png</t>
         </is>
       </c>
-      <c r="F87" t="inlineStr">
+      <c r="H87" t="inlineStr">
         <is>
           <t>./test_images/SIBN1731674433.2064416.png</t>
         </is>
       </c>
-      <c r="G87" t="inlineStr">
+      <c r="I87" t="inlineStr">
         <is>
           <t>long</t>
         </is>
       </c>
-      <c r="H87" t="inlineStr">
-        <is>
-          <t>ST3</t>
-        </is>
-      </c>
-      <c r="I87" t="n">
+      <c r="J87" t="inlineStr">
+        <is>
+          <t>ST3</t>
+        </is>
+      </c>
+      <c r="K87" t="n">
         <v>669.95</v>
       </c>
-      <c r="J87" t="n">
+      <c r="L87" t="n">
         <v>668.8</v>
       </c>
-      <c r="K87" t="n">
+      <c r="M87" t="n">
         <v>-1.150000000000091</v>
       </c>
-      <c r="L87" t="n">
+      <c r="N87" t="n">
         <v>-0.17</v>
       </c>
     </row>
@@ -4949,95 +5475,107 @@
       <c r="A88" s="1" t="n">
         <v>86</v>
       </c>
-      <c r="B88" t="inlineStr">
+      <c r="B88" t="n">
+        <v>86</v>
+      </c>
+      <c r="C88" t="n">
+        <v>86</v>
+      </c>
+      <c r="D88" t="inlineStr">
         <is>
           <t>SIBN</t>
         </is>
       </c>
-      <c r="C88" t="inlineStr">
+      <c r="E88" t="inlineStr">
         <is>
           <t>1731674437.5578892</t>
-        </is>
-      </c>
-      <c r="D88" t="inlineStr"/>
-      <c r="E88" t="inlineStr">
-        <is>
-          <t>./test_images/SIBN1731674437.5578892.png</t>
         </is>
       </c>
       <c r="F88" t="inlineStr"/>
       <c r="G88" t="inlineStr">
         <is>
+          <t>./test_images/SIBN1731674437.5578892.png</t>
+        </is>
+      </c>
+      <c r="H88" t="inlineStr"/>
+      <c r="I88" t="inlineStr">
+        <is>
           <t>long</t>
         </is>
       </c>
-      <c r="H88" t="inlineStr">
-        <is>
-          <t>ST3</t>
-        </is>
-      </c>
-      <c r="I88" t="n">
+      <c r="J88" t="inlineStr">
+        <is>
+          <t>ST3</t>
+        </is>
+      </c>
+      <c r="K88" t="n">
         <v>670.65</v>
       </c>
-      <c r="J88" t="n">
-        <v>670.65</v>
-      </c>
-      <c r="K88" t="n">
-        <v>0</v>
-      </c>
       <c r="L88" t="n">
-        <v>0</v>
+        <v>670.5</v>
+      </c>
+      <c r="M88" t="n">
+        <v>-0.1499999999999773</v>
+      </c>
+      <c r="N88" t="n">
+        <v>-0.02</v>
       </c>
     </row>
     <row r="89">
       <c r="A89" s="1" t="n">
         <v>87</v>
       </c>
-      <c r="B89" t="inlineStr">
+      <c r="B89" t="n">
+        <v>87</v>
+      </c>
+      <c r="C89" t="n">
+        <v>87</v>
+      </c>
+      <c r="D89" t="inlineStr">
         <is>
           <t>MTLR</t>
         </is>
       </c>
-      <c r="C89" t="inlineStr">
+      <c r="E89" t="inlineStr">
         <is>
           <t>1731674441.706097</t>
         </is>
       </c>
-      <c r="D89" t="inlineStr">
+      <c r="F89" t="inlineStr">
         <is>
           <t>1731674446.1241226</t>
         </is>
       </c>
-      <c r="E89" t="inlineStr">
+      <c r="G89" t="inlineStr">
         <is>
           <t>./test_images/MTLR1731674441.706097.png</t>
         </is>
       </c>
-      <c r="F89" t="inlineStr">
+      <c r="H89" t="inlineStr">
         <is>
           <t>./test_images/MTLR1731674446.1241226.png</t>
         </is>
       </c>
-      <c r="G89" t="inlineStr">
+      <c r="I89" t="inlineStr">
         <is>
           <t>long</t>
         </is>
       </c>
-      <c r="H89" t="inlineStr">
-        <is>
-          <t>ST3</t>
-        </is>
-      </c>
-      <c r="I89" t="n">
+      <c r="J89" t="inlineStr">
+        <is>
+          <t>ST3</t>
+        </is>
+      </c>
+      <c r="K89" t="n">
         <v>154.6</v>
       </c>
-      <c r="J89" t="n">
+      <c r="L89" t="n">
         <v>152.34</v>
       </c>
-      <c r="K89" t="n">
+      <c r="M89" t="n">
         <v>-2.259999999999991</v>
       </c>
-      <c r="L89" t="n">
+      <c r="N89" t="n">
         <v>-1.46</v>
       </c>
     </row>
@@ -5045,51 +5583,57 @@
       <c r="A90" s="1" t="n">
         <v>88</v>
       </c>
-      <c r="B90" t="inlineStr">
+      <c r="B90" t="n">
+        <v>88</v>
+      </c>
+      <c r="C90" t="n">
+        <v>88</v>
+      </c>
+      <c r="D90" t="inlineStr">
         <is>
           <t>MTLR</t>
         </is>
       </c>
-      <c r="C90" t="inlineStr">
+      <c r="E90" t="inlineStr">
         <is>
           <t>1731674446.7451146</t>
         </is>
       </c>
-      <c r="D90" t="inlineStr">
+      <c r="F90" t="inlineStr">
         <is>
           <t>1731674447.2105284</t>
         </is>
       </c>
-      <c r="E90" t="inlineStr">
+      <c r="G90" t="inlineStr">
         <is>
           <t>./test_images/MTLR1731674446.7451146.png</t>
         </is>
       </c>
-      <c r="F90" t="inlineStr">
+      <c r="H90" t="inlineStr">
         <is>
           <t>./test_images/MTLR1731674447.2105284.png</t>
         </is>
       </c>
-      <c r="G90" t="inlineStr">
+      <c r="I90" t="inlineStr">
         <is>
           <t>short</t>
         </is>
       </c>
-      <c r="H90" t="inlineStr">
-        <is>
-          <t>ST3</t>
-        </is>
-      </c>
-      <c r="I90" t="n">
+      <c r="J90" t="inlineStr">
+        <is>
+          <t>ST3</t>
+        </is>
+      </c>
+      <c r="K90" t="n">
         <v>152.67</v>
       </c>
-      <c r="J90" t="n">
+      <c r="L90" t="n">
         <v>151.82</v>
       </c>
-      <c r="K90" t="n">
+      <c r="M90" t="n">
         <v>0.8499999999999943</v>
       </c>
-      <c r="L90" t="n">
+      <c r="N90" t="n">
         <v>0.5599999999999999</v>
       </c>
     </row>
@@ -5097,51 +5641,57 @@
       <c r="A91" s="1" t="n">
         <v>89</v>
       </c>
-      <c r="B91" t="inlineStr">
+      <c r="B91" t="n">
+        <v>89</v>
+      </c>
+      <c r="C91" t="n">
+        <v>89</v>
+      </c>
+      <c r="D91" t="inlineStr">
         <is>
           <t>MTLR</t>
         </is>
       </c>
-      <c r="C91" t="inlineStr">
+      <c r="E91" t="inlineStr">
         <is>
           <t>1731674455.5985634</t>
         </is>
       </c>
-      <c r="D91" t="inlineStr">
+      <c r="F91" t="inlineStr">
         <is>
           <t>1731674455.8486452</t>
         </is>
       </c>
-      <c r="E91" t="inlineStr">
+      <c r="G91" t="inlineStr">
         <is>
           <t>./test_images/MTLR1731674455.5985634.png</t>
         </is>
       </c>
-      <c r="F91" t="inlineStr">
+      <c r="H91" t="inlineStr">
         <is>
           <t>./test_images/MTLR1731674455.8486452.png</t>
         </is>
       </c>
-      <c r="G91" t="inlineStr">
+      <c r="I91" t="inlineStr">
         <is>
           <t>short</t>
         </is>
       </c>
-      <c r="H91" t="inlineStr">
-        <is>
-          <t>ST3</t>
-        </is>
-      </c>
-      <c r="I91" t="n">
+      <c r="J91" t="inlineStr">
+        <is>
+          <t>ST3</t>
+        </is>
+      </c>
+      <c r="K91" t="n">
         <v>150.34</v>
       </c>
-      <c r="J91" t="n">
+      <c r="L91" t="n">
         <v>149.76</v>
       </c>
-      <c r="K91" t="n">
+      <c r="M91" t="n">
         <v>0.5800000000000125</v>
       </c>
-      <c r="L91" t="n">
+      <c r="N91" t="n">
         <v>0.39</v>
       </c>
     </row>
@@ -5149,51 +5699,57 @@
       <c r="A92" s="1" t="n">
         <v>90</v>
       </c>
-      <c r="B92" t="inlineStr">
+      <c r="B92" t="n">
+        <v>90</v>
+      </c>
+      <c r="C92" t="n">
+        <v>90</v>
+      </c>
+      <c r="D92" t="inlineStr">
         <is>
           <t>FEES</t>
         </is>
       </c>
-      <c r="C92" t="inlineStr">
+      <c r="E92" t="inlineStr">
         <is>
           <t>1731674469.4369793</t>
         </is>
       </c>
-      <c r="D92" t="inlineStr">
+      <c r="F92" t="inlineStr">
         <is>
           <t>1731674470.6775577</t>
         </is>
       </c>
-      <c r="E92" t="inlineStr">
+      <c r="G92" t="inlineStr">
         <is>
           <t>./test_images/FEES1731674469.4369793.png</t>
         </is>
       </c>
-      <c r="F92" t="inlineStr">
+      <c r="H92" t="inlineStr">
         <is>
           <t>./test_images/FEES1731674470.6775577.png</t>
         </is>
       </c>
-      <c r="G92" t="inlineStr">
+      <c r="I92" t="inlineStr">
         <is>
           <t>long</t>
         </is>
       </c>
-      <c r="H92" t="inlineStr">
-        <is>
-          <t>ST3</t>
-        </is>
-      </c>
-      <c r="I92" t="n">
+      <c r="J92" t="inlineStr">
+        <is>
+          <t>ST3</t>
+        </is>
+      </c>
+      <c r="K92" t="n">
         <v>0.09644000000000001</v>
       </c>
-      <c r="J92" t="n">
+      <c r="L92" t="n">
         <v>0.09660000000000001</v>
       </c>
-      <c r="K92" t="n">
+      <c r="M92" t="n">
         <v>0.0001599999999999935</v>
       </c>
-      <c r="L92" t="n">
+      <c r="N92" t="n">
         <v>0.17</v>
       </c>
     </row>
@@ -5201,51 +5757,57 @@
       <c r="A93" s="1" t="n">
         <v>91</v>
       </c>
-      <c r="B93" t="inlineStr">
+      <c r="B93" t="n">
+        <v>91</v>
+      </c>
+      <c r="C93" t="n">
+        <v>91</v>
+      </c>
+      <c r="D93" t="inlineStr">
         <is>
           <t>FEES</t>
         </is>
       </c>
-      <c r="C93" t="inlineStr">
+      <c r="E93" t="inlineStr">
         <is>
           <t>1731674483.4407635</t>
         </is>
       </c>
-      <c r="D93" t="inlineStr">
+      <c r="F93" t="inlineStr">
         <is>
           <t>1731674484.6902359</t>
         </is>
       </c>
-      <c r="E93" t="inlineStr">
+      <c r="G93" t="inlineStr">
         <is>
           <t>./test_images/FEES1731674483.4407635.png</t>
         </is>
       </c>
-      <c r="F93" t="inlineStr">
+      <c r="H93" t="inlineStr">
         <is>
           <t>./test_images/FEES1731674484.6902359.png</t>
         </is>
       </c>
-      <c r="G93" t="inlineStr">
+      <c r="I93" t="inlineStr">
         <is>
           <t>short</t>
         </is>
       </c>
-      <c r="H93" t="inlineStr">
-        <is>
-          <t>ST3</t>
-        </is>
-      </c>
-      <c r="I93" t="n">
+      <c r="J93" t="inlineStr">
+        <is>
+          <t>ST3</t>
+        </is>
+      </c>
+      <c r="K93" t="n">
         <v>0.09524000000000001</v>
       </c>
-      <c r="J93" t="n">
+      <c r="L93" t="n">
         <v>0.0949</v>
       </c>
-      <c r="K93" t="n">
+      <c r="M93" t="n">
         <v>0.000340000000000007</v>
       </c>
-      <c r="L93" t="n">
+      <c r="N93" t="n">
         <v>0.36</v>
       </c>
     </row>
@@ -5253,51 +5815,57 @@
       <c r="A94" s="1" t="n">
         <v>92</v>
       </c>
-      <c r="B94" t="inlineStr">
+      <c r="B94" t="n">
+        <v>92</v>
+      </c>
+      <c r="C94" t="n">
+        <v>92</v>
+      </c>
+      <c r="D94" t="inlineStr">
         <is>
           <t>FEES</t>
         </is>
       </c>
-      <c r="C94" t="inlineStr">
+      <c r="E94" t="inlineStr">
         <is>
           <t>1731674485.4993408</t>
         </is>
       </c>
-      <c r="D94" t="inlineStr">
+      <c r="F94" t="inlineStr">
         <is>
           <t>1731674486.1273193</t>
         </is>
       </c>
-      <c r="E94" t="inlineStr">
+      <c r="G94" t="inlineStr">
         <is>
           <t>./test_images/FEES1731674485.4993408.png</t>
         </is>
       </c>
-      <c r="F94" t="inlineStr">
+      <c r="H94" t="inlineStr">
         <is>
           <t>./test_images/FEES1731674486.1273193.png</t>
         </is>
       </c>
-      <c r="G94" t="inlineStr">
+      <c r="I94" t="inlineStr">
         <is>
           <t>short</t>
         </is>
       </c>
-      <c r="H94" t="inlineStr">
-        <is>
-          <t>ST3</t>
-        </is>
-      </c>
-      <c r="I94" t="n">
+      <c r="J94" t="inlineStr">
+        <is>
+          <t>ST3</t>
+        </is>
+      </c>
+      <c r="K94" t="n">
         <v>0.09494000000000001</v>
       </c>
-      <c r="J94" t="n">
+      <c r="L94" t="n">
         <v>0.09520000000000001</v>
       </c>
-      <c r="K94" t="n">
+      <c r="M94" t="n">
         <v>-0.0002599999999999963</v>
       </c>
-      <c r="L94" t="n">
+      <c r="N94" t="n">
         <v>-0.27</v>
       </c>
     </row>
@@ -5305,95 +5873,107 @@
       <c r="A95" s="1" t="n">
         <v>93</v>
       </c>
-      <c r="B95" t="inlineStr">
+      <c r="B95" t="n">
+        <v>93</v>
+      </c>
+      <c r="C95" t="n">
+        <v>93</v>
+      </c>
+      <c r="D95" t="inlineStr">
         <is>
           <t>FEES</t>
         </is>
       </c>
-      <c r="C95" t="inlineStr">
+      <c r="E95" t="inlineStr">
         <is>
           <t>1731674488.8419743</t>
-        </is>
-      </c>
-      <c r="D95" t="inlineStr"/>
-      <c r="E95" t="inlineStr">
-        <is>
-          <t>./test_images/FEES1731674488.8419743.png</t>
         </is>
       </c>
       <c r="F95" t="inlineStr"/>
       <c r="G95" t="inlineStr">
         <is>
+          <t>./test_images/FEES1731674488.8419743.png</t>
+        </is>
+      </c>
+      <c r="H95" t="inlineStr"/>
+      <c r="I95" t="inlineStr">
+        <is>
           <t>long</t>
         </is>
       </c>
-      <c r="H95" t="inlineStr">
-        <is>
-          <t>ST3</t>
-        </is>
-      </c>
-      <c r="I95" t="n">
+      <c r="J95" t="inlineStr">
+        <is>
+          <t>ST3</t>
+        </is>
+      </c>
+      <c r="K95" t="n">
         <v>0.09544000000000001</v>
       </c>
-      <c r="J95" t="n">
-        <v>0.09544000000000001</v>
-      </c>
-      <c r="K95" t="n">
-        <v>0</v>
-      </c>
       <c r="L95" t="n">
-        <v>0</v>
+        <v>0.09556000000000001</v>
+      </c>
+      <c r="M95" t="n">
+        <v>0.0001199999999999951</v>
+      </c>
+      <c r="N95" t="n">
+        <v>0.13</v>
       </c>
     </row>
     <row r="96">
       <c r="A96" s="1" t="n">
         <v>94</v>
       </c>
-      <c r="B96" t="inlineStr">
+      <c r="B96" t="n">
+        <v>94</v>
+      </c>
+      <c r="C96" t="n">
+        <v>94</v>
+      </c>
+      <c r="D96" t="inlineStr">
         <is>
           <t>MXI</t>
         </is>
       </c>
-      <c r="C96" t="inlineStr">
+      <c r="E96" t="inlineStr">
         <is>
           <t>1731674500.420842</t>
         </is>
       </c>
-      <c r="D96" t="inlineStr">
+      <c r="F96" t="inlineStr">
         <is>
           <t>1731674502.1827533</t>
         </is>
       </c>
-      <c r="E96" t="inlineStr">
+      <c r="G96" t="inlineStr">
         <is>
           <t>./test_images/MXI1731674500.420842.png</t>
         </is>
       </c>
-      <c r="F96" t="inlineStr">
+      <c r="H96" t="inlineStr">
         <is>
           <t>./test_images/MXI1731674502.1827533.png</t>
         </is>
       </c>
-      <c r="G96" t="inlineStr">
+      <c r="I96" t="inlineStr">
         <is>
           <t>short</t>
         </is>
       </c>
-      <c r="H96" t="inlineStr">
-        <is>
-          <t>ST3</t>
-        </is>
-      </c>
-      <c r="I96" t="n">
+      <c r="J96" t="inlineStr">
+        <is>
+          <t>ST3</t>
+        </is>
+      </c>
+      <c r="K96" t="n">
         <v>2907.35</v>
       </c>
-      <c r="J96" t="n">
+      <c r="L96" t="n">
         <v>2912.75</v>
       </c>
-      <c r="K96" t="n">
+      <c r="M96" t="n">
         <v>-5.400000000000091</v>
       </c>
-      <c r="L96" t="n">
+      <c r="N96" t="n">
         <v>-0.19</v>
       </c>
     </row>
@@ -5401,51 +5981,57 @@
       <c r="A97" s="1" t="n">
         <v>95</v>
       </c>
-      <c r="B97" t="inlineStr">
+      <c r="B97" t="n">
+        <v>95</v>
+      </c>
+      <c r="C97" t="n">
+        <v>95</v>
+      </c>
+      <c r="D97" t="inlineStr">
         <is>
           <t>MXI</t>
         </is>
       </c>
-      <c r="C97" t="inlineStr">
+      <c r="E97" t="inlineStr">
         <is>
           <t>1731674508.9335794</t>
         </is>
       </c>
-      <c r="D97" t="inlineStr">
+      <c r="F97" t="inlineStr">
         <is>
           <t>1731674509.9202547</t>
         </is>
       </c>
-      <c r="E97" t="inlineStr">
+      <c r="G97" t="inlineStr">
         <is>
           <t>./test_images/MXI1731674508.9335794.png</t>
         </is>
       </c>
-      <c r="F97" t="inlineStr">
+      <c r="H97" t="inlineStr">
         <is>
           <t>./test_images/MXI1731674509.9202547.png</t>
         </is>
       </c>
-      <c r="G97" t="inlineStr">
+      <c r="I97" t="inlineStr">
         <is>
           <t>short</t>
         </is>
       </c>
-      <c r="H97" t="inlineStr">
-        <is>
-          <t>ST3</t>
-        </is>
-      </c>
-      <c r="I97" t="n">
+      <c r="J97" t="inlineStr">
+        <is>
+          <t>ST3</t>
+        </is>
+      </c>
+      <c r="K97" t="n">
         <v>2896.8</v>
       </c>
-      <c r="J97" t="n">
+      <c r="L97" t="n">
         <v>2892.55</v>
       </c>
-      <c r="K97" t="n">
+      <c r="M97" t="n">
         <v>4.25</v>
       </c>
-      <c r="L97" t="n">
+      <c r="N97" t="n">
         <v>0.15</v>
       </c>
     </row>
@@ -5453,51 +6039,57 @@
       <c r="A98" s="1" t="n">
         <v>96</v>
       </c>
-      <c r="B98" t="inlineStr">
+      <c r="B98" t="n">
+        <v>96</v>
+      </c>
+      <c r="C98" t="n">
+        <v>96</v>
+      </c>
+      <c r="D98" t="inlineStr">
         <is>
           <t>MXI</t>
         </is>
       </c>
-      <c r="C98" t="inlineStr">
+      <c r="E98" t="inlineStr">
         <is>
           <t>1731674511.8908827</t>
         </is>
       </c>
-      <c r="D98" t="inlineStr">
+      <c r="F98" t="inlineStr">
         <is>
           <t>1731674513.989436</t>
         </is>
       </c>
-      <c r="E98" t="inlineStr">
+      <c r="G98" t="inlineStr">
         <is>
           <t>./test_images/MXI1731674511.8908827.png</t>
         </is>
       </c>
-      <c r="F98" t="inlineStr">
+      <c r="H98" t="inlineStr">
         <is>
           <t>./test_images/MXI1731674513.989436.png</t>
         </is>
       </c>
-      <c r="G98" t="inlineStr">
+      <c r="I98" t="inlineStr">
         <is>
           <t>short</t>
         </is>
       </c>
-      <c r="H98" t="inlineStr">
-        <is>
-          <t>ST3</t>
-        </is>
-      </c>
-      <c r="I98" t="n">
+      <c r="J98" t="inlineStr">
+        <is>
+          <t>ST3</t>
+        </is>
+      </c>
+      <c r="K98" t="n">
         <v>2890.2</v>
       </c>
-      <c r="J98" t="n">
+      <c r="L98" t="n">
         <v>2899.25</v>
       </c>
-      <c r="K98" t="n">
+      <c r="M98" t="n">
         <v>-9.050000000000182</v>
       </c>
-      <c r="L98" t="n">
+      <c r="N98" t="n">
         <v>-0.31</v>
       </c>
     </row>
@@ -5505,51 +6097,57 @@
       <c r="A99" s="1" t="n">
         <v>97</v>
       </c>
-      <c r="B99" t="inlineStr">
+      <c r="B99" t="n">
+        <v>97</v>
+      </c>
+      <c r="C99" t="n">
+        <v>97</v>
+      </c>
+      <c r="D99" t="inlineStr">
         <is>
           <t>MXI</t>
         </is>
       </c>
-      <c r="C99" t="inlineStr">
+      <c r="E99" t="inlineStr">
         <is>
           <t>1731674521.0304608</t>
         </is>
       </c>
-      <c r="D99" t="inlineStr">
+      <c r="F99" t="inlineStr">
         <is>
           <t>1731674522.4408755</t>
         </is>
       </c>
-      <c r="E99" t="inlineStr">
+      <c r="G99" t="inlineStr">
         <is>
           <t>./test_images/MXI1731674521.0304608.png</t>
         </is>
       </c>
-      <c r="F99" t="inlineStr">
+      <c r="H99" t="inlineStr">
         <is>
           <t>./test_images/MXI1731674522.4408755.png</t>
         </is>
       </c>
-      <c r="G99" t="inlineStr">
+      <c r="I99" t="inlineStr">
         <is>
           <t>long</t>
         </is>
       </c>
-      <c r="H99" t="inlineStr">
-        <is>
-          <t>ST3</t>
-        </is>
-      </c>
-      <c r="I99" t="n">
+      <c r="J99" t="inlineStr">
+        <is>
+          <t>ST3</t>
+        </is>
+      </c>
+      <c r="K99" t="n">
         <v>2903.15</v>
       </c>
-      <c r="J99" t="n">
+      <c r="L99" t="n">
         <v>2906.5</v>
       </c>
-      <c r="K99" t="n">
+      <c r="M99" t="n">
         <v>3.349999999999909</v>
       </c>
-      <c r="L99" t="n">
+      <c r="N99" t="n">
         <v>0.12</v>
       </c>
     </row>
@@ -5557,44 +6155,50 @@
       <c r="A100" s="1" t="n">
         <v>98</v>
       </c>
-      <c r="B100" t="inlineStr">
+      <c r="B100" t="n">
+        <v>98</v>
+      </c>
+      <c r="C100" t="n">
+        <v>98</v>
+      </c>
+      <c r="D100" t="inlineStr">
         <is>
           <t>MXI</t>
         </is>
       </c>
-      <c r="C100" t="inlineStr">
+      <c r="E100" t="inlineStr">
         <is>
           <t>1731674522.976491</t>
-        </is>
-      </c>
-      <c r="D100" t="inlineStr"/>
-      <c r="E100" t="inlineStr">
-        <is>
-          <t>./test_images/MXI1731674522.976491.png</t>
         </is>
       </c>
       <c r="F100" t="inlineStr"/>
       <c r="G100" t="inlineStr">
         <is>
+          <t>./test_images/MXI1731674522.976491.png</t>
+        </is>
+      </c>
+      <c r="H100" t="inlineStr"/>
+      <c r="I100" t="inlineStr">
+        <is>
           <t>long</t>
         </is>
       </c>
-      <c r="H100" t="inlineStr">
-        <is>
-          <t>ST3</t>
-        </is>
-      </c>
-      <c r="I100" t="n">
+      <c r="J100" t="inlineStr">
+        <is>
+          <t>ST3</t>
+        </is>
+      </c>
+      <c r="K100" t="n">
         <v>2905.8</v>
       </c>
-      <c r="J100" t="n">
-        <v>2905.8</v>
-      </c>
-      <c r="K100" t="n">
-        <v>0</v>
-      </c>
       <c r="L100" t="n">
-        <v>0</v>
+        <v>2909.55</v>
+      </c>
+      <c r="M100" t="n">
+        <v>3.75</v>
+      </c>
+      <c r="N100" t="n">
+        <v>0.13</v>
       </c>
     </row>
   </sheetData>
@@ -5743,19 +6347,19 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-0.006000000000002004</v>
+        <v>-0.01200000000000223</v>
       </c>
       <c r="C6" t="n">
         <v>6</v>
       </c>
       <c r="D6" t="n">
-        <v>-0.001000000000000334</v>
+        <v>-0.002000000000000372</v>
       </c>
       <c r="E6" t="n">
-        <v>-0.04000000000000001</v>
+        <v>-0.09000000000000001</v>
       </c>
       <c r="F6" t="n">
-        <v>-0.01</v>
+        <v>-0.02</v>
       </c>
     </row>
     <row r="7">
@@ -5809,19 +6413,19 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>-6.850000000000364</v>
+        <v>-3.100000000000364</v>
       </c>
       <c r="C9" t="n">
         <v>6</v>
       </c>
       <c r="D9" t="n">
-        <v>-1.141666666666727</v>
+        <v>-0.5166666666667273</v>
       </c>
       <c r="E9" t="n">
-        <v>-0.23</v>
+        <v>-0.1</v>
       </c>
       <c r="F9" t="n">
-        <v>-0.04</v>
+        <v>-0.02</v>
       </c>
     </row>
     <row r="10">
@@ -5853,19 +6457,19 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>0.8999999999999773</v>
+        <v>0.75</v>
       </c>
       <c r="C11" t="n">
         <v>5</v>
       </c>
       <c r="D11" t="n">
-        <v>0.1799999999999954</v>
+        <v>0.15</v>
       </c>
       <c r="E11" t="n">
-        <v>0.13</v>
+        <v>0.11</v>
       </c>
       <c r="F11" t="n">
-        <v>0.03</v>
+        <v>0.02</v>
       </c>
     </row>
     <row r="12">
@@ -5919,19 +6523,19 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>0.0002400000000000041</v>
+        <v>0.0003599999999999992</v>
       </c>
       <c r="C14" t="n">
         <v>4</v>
       </c>
       <c r="D14" t="n">
-        <v>6.000000000000102e-05</v>
+        <v>8.99999999999998e-05</v>
       </c>
       <c r="E14" t="n">
-        <v>0.26</v>
+        <v>0.39</v>
       </c>
       <c r="F14" t="n">
-        <v>0.06</v>
+        <v>0.1</v>
       </c>
     </row>
     <row r="15">
